--- a/capiq_data/in_process_data/IQ29726.xlsx
+++ b/capiq_data/in_process_data/IQ29726.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DAF552-34D1-4077-8A6A-3EA8F323A787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242B3F73-46D3-47DD-95CE-3D2BC41A7627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"0eb2ed2f-7739-419e-bdec-f550053317e6"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"baa283de-ac8f-45a1-aac1-255fcef1e5a3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>240.27799999999999</v>
+        <v>20.388000000000002</v>
       </c>
       <c r="D2">
-        <v>1219.0719999999999</v>
+        <v>45.841999999999999</v>
       </c>
       <c r="E2">
-        <v>827.78800000000001</v>
+        <v>41.228999999999999</v>
       </c>
       <c r="F2">
-        <v>1125.4680000000001</v>
+        <v>45.841999999999999</v>
       </c>
       <c r="G2">
-        <v>2540.42</v>
+        <v>631.25800000000004</v>
       </c>
       <c r="H2">
-        <v>8092.4930000000004</v>
+        <v>856.40599999999995</v>
       </c>
       <c r="I2">
-        <v>162.529</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="J2">
-        <v>1066.3789999999999</v>
+        <v>128.88800000000001</v>
       </c>
       <c r="K2">
-        <v>125.9</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1050.1220000000001</v>
+        <v>23.045000000000002</v>
       </c>
       <c r="O2">
-        <v>2643.05</v>
+        <v>161.78700000000001</v>
       </c>
       <c r="P2">
-        <v>1203.5319999999999</v>
+        <v>129.631</v>
       </c>
       <c r="Q2">
-        <v>132.84100000000001</v>
+        <v>304.19499999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4850</v>
+        <v>493</v>
       </c>
       <c r="T2">
-        <v>5449.4430000000002</v>
+        <v>694.61900000000003</v>
       </c>
       <c r="U2">
-        <v>759.59799999999996</v>
+        <v>401.05200000000002</v>
       </c>
       <c r="V2">
-        <v>431.05599999999998</v>
+        <v>19.814</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>225.92599999999999</v>
+        <v>458.04599999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-437.28699999999998</v>
+        <v>-170.66800000000001</v>
       </c>
       <c r="AA2">
-        <v>240.27799999999999</v>
+        <v>20.388000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>294.33100000000002</v>
+        <v>20.806999999999999</v>
       </c>
       <c r="D3">
-        <v>1192.3430000000001</v>
+        <v>56.537999999999997</v>
       </c>
       <c r="E3">
-        <v>918.21900000000005</v>
+        <v>47.564</v>
       </c>
       <c r="F3">
-        <v>1089.23</v>
+        <v>56.537999999999997</v>
       </c>
       <c r="G3">
-        <v>2628.3150000000001</v>
+        <v>692.64300000000003</v>
       </c>
       <c r="H3">
-        <v>8293.5239999999994</v>
+        <v>897.92700000000002</v>
       </c>
       <c r="I3">
-        <v>159.136</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="J3">
-        <v>1065.6130000000001</v>
+        <v>130.626</v>
       </c>
       <c r="K3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
       <c r="N3">
-        <v>978.846</v>
+        <v>23.404</v>
       </c>
       <c r="O3">
-        <v>2619.2240000000002</v>
+        <v>164.06800000000001</v>
       </c>
       <c r="P3">
-        <v>1200.3920000000001</v>
+        <v>130.999</v>
       </c>
       <c r="Q3">
-        <v>31.077000000000002</v>
+        <v>14.366</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5674.3</v>
+        <v>733.85900000000004</v>
       </c>
       <c r="U3">
-        <v>790.67499999999995</v>
+        <v>415.41800000000001</v>
       </c>
       <c r="V3">
-        <v>253.578</v>
+        <v>32.752000000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-99.831999999999994</v>
+        <v>5.327</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-120.64700000000001</v>
+        <v>-18.632000000000001</v>
       </c>
       <c r="AA3">
-        <v>294.33</v>
+        <v>20.806999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>288.03300000000002</v>
+        <v>25.152999999999999</v>
       </c>
       <c r="D4">
-        <v>1208.6469999999999</v>
+        <v>64.849000000000004</v>
       </c>
       <c r="E4">
-        <v>851.83100000000002</v>
+        <v>54.988999999999997</v>
       </c>
       <c r="F4">
-        <v>1108.144</v>
+        <v>64.849000000000004</v>
       </c>
       <c r="G4">
-        <v>2688.623</v>
+        <v>676.89700000000005</v>
       </c>
       <c r="H4">
-        <v>8621.9789999999994</v>
+        <v>952.94</v>
       </c>
       <c r="I4">
-        <v>170.74600000000001</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="J4">
-        <v>1062.9860000000001</v>
+        <v>132.40899999999999</v>
       </c>
       <c r="K4">
-        <v>124.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>954.33</v>
+        <v>21.544</v>
       </c>
       <c r="O4">
-        <v>2565.7849999999999</v>
+        <v>164.27500000000001</v>
       </c>
       <c r="P4">
-        <v>1194.9670000000001</v>
+        <v>132.554</v>
       </c>
       <c r="Q4">
-        <v>-93.149000000000001</v>
+        <v>38.488</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>6056.1940000000004</v>
+        <v>788.66499999999996</v>
       </c>
       <c r="U4">
-        <v>697.52599999999995</v>
+        <v>453.90600000000001</v>
       </c>
       <c r="V4">
-        <v>429.666</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>21.907</v>
+        <v>14.814</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-488.08499999999998</v>
+        <v>-2.161</v>
       </c>
       <c r="AA4">
-        <v>288.03399999999999</v>
+        <v>25.152999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>351.82600000000002</v>
+        <v>26.957000000000001</v>
       </c>
       <c r="D5">
-        <v>1309.934</v>
+        <v>69.614999999999995</v>
       </c>
       <c r="E5">
-        <v>812.63400000000001</v>
+        <v>60.423999999999999</v>
       </c>
       <c r="F5">
-        <v>1186.4069999999999</v>
+        <v>69.614999999999995</v>
       </c>
       <c r="G5">
-        <v>2837.288</v>
+        <v>645.96699999999998</v>
       </c>
       <c r="H5">
-        <v>8802.2039999999997</v>
+        <v>1003.053</v>
       </c>
       <c r="I5">
-        <v>159.197</v>
+        <v>1.726</v>
       </c>
       <c r="J5">
-        <v>1060.6389999999999</v>
+        <v>134.19300000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>885.346</v>
+        <v>22.445</v>
       </c>
       <c r="O5">
-        <v>2568.61</v>
+        <v>167.113</v>
       </c>
       <c r="P5">
-        <v>1064.0609999999999</v>
+        <v>134.19300000000001</v>
       </c>
       <c r="Q5">
-        <v>-122.386</v>
+        <v>-12.978999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>6233.5940000000001</v>
+        <v>835.94</v>
       </c>
       <c r="U5">
-        <v>575.14</v>
+        <v>440.92700000000002</v>
       </c>
       <c r="V5">
-        <v>570.52300000000002</v>
+        <v>36.637</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-99.128</v>
+        <v>3.226</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-506.18700000000001</v>
+        <v>-16.055</v>
       </c>
       <c r="AA5">
-        <v>351.82600000000002</v>
+        <v>26.957000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>300.238</v>
+        <v>28.742000000000001</v>
       </c>
       <c r="D6">
-        <v>1326.71</v>
+        <v>81.674999999999997</v>
       </c>
       <c r="E6">
-        <v>813.327</v>
+        <v>68.644000000000005</v>
       </c>
       <c r="F6">
-        <v>1187.0730000000001</v>
+        <v>81.674999999999997</v>
       </c>
       <c r="G6">
-        <v>2975.4270000000001</v>
+        <v>708.81399999999996</v>
       </c>
       <c r="H6">
-        <v>9049.6039999999994</v>
+        <v>1141.2159999999999</v>
       </c>
       <c r="I6">
-        <v>186.44800000000001</v>
+        <v>3.8660000000000001</v>
       </c>
       <c r="J6">
-        <v>1060.808</v>
+        <v>135.977</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>912.88900000000001</v>
+        <v>33.789000000000001</v>
       </c>
       <c r="O6">
-        <v>2622.6170000000002</v>
+        <v>184.73699999999999</v>
       </c>
       <c r="P6">
-        <v>1064.0999999999999</v>
+        <v>135.977</v>
       </c>
       <c r="Q6">
-        <v>-60.597999999999999</v>
+        <v>-14.928000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5000</v>
+        <v>692</v>
       </c>
       <c r="T6">
-        <v>6426.9870000000001</v>
+        <v>956.47900000000004</v>
       </c>
       <c r="U6">
-        <v>514.54200000000003</v>
+        <v>425.99900000000002</v>
       </c>
       <c r="V6">
-        <v>473.97399999999999</v>
+        <v>51.055</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-142.809</v>
+        <v>3.9860000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-278.2</v>
+        <v>-52.491999999999997</v>
       </c>
       <c r="AA6">
-        <v>300.238</v>
+        <v>28.742000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>302.661</v>
+        <v>29.672999999999998</v>
       </c>
       <c r="D7">
-        <v>1292.0139999999999</v>
+        <v>79.741</v>
       </c>
       <c r="E7">
-        <v>941.59299999999996</v>
+        <v>62.851999999999997</v>
       </c>
       <c r="F7">
-        <v>1158.817</v>
+        <v>79.741</v>
       </c>
       <c r="G7">
-        <v>2677.95</v>
+        <v>562.19000000000005</v>
       </c>
       <c r="H7">
-        <v>9113.5490000000009</v>
+        <v>1181.922</v>
       </c>
       <c r="I7">
-        <v>173.33</v>
+        <v>2.706</v>
       </c>
       <c r="J7">
-        <v>626.01199999999994</v>
+        <v>137.76400000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1337.319</v>
+        <v>28.707999999999998</v>
       </c>
       <c r="O7">
-        <v>2805.0010000000002</v>
+        <v>172.20500000000001</v>
       </c>
       <c r="P7">
-        <v>1079.373</v>
+        <v>137.76400000000001</v>
       </c>
       <c r="Q7">
-        <v>-216.40299999999999</v>
+        <v>-44.372999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>6308.5479999999998</v>
+        <v>1009.717</v>
       </c>
       <c r="U7">
-        <v>298.13900000000001</v>
+        <v>381.62599999999998</v>
       </c>
       <c r="V7">
-        <v>194.625</v>
+        <v>20.641999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-416.26400000000001</v>
+        <v>9.1470000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>147.34200000000001</v>
+        <v>-54.051000000000002</v>
       </c>
       <c r="AA7">
-        <v>302.661</v>
+        <v>29.672999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>386.846</v>
+        <v>35.383000000000003</v>
       </c>
       <c r="D8">
-        <v>1420.951</v>
+        <v>97.131</v>
       </c>
       <c r="E8">
-        <v>950.68200000000002</v>
+        <v>95.718999999999994</v>
       </c>
       <c r="F8">
-        <v>1281.8389999999999</v>
+        <v>96.242000000000004</v>
       </c>
       <c r="G8">
-        <v>2868.9189999999999</v>
+        <v>1161.04</v>
       </c>
       <c r="H8">
-        <v>9162.3799999999992</v>
+        <v>1832.0329999999999</v>
       </c>
       <c r="I8">
-        <v>159.15199999999999</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="J8">
-        <v>641.56799999999998</v>
+        <v>856.16499999999996</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1432.865</v>
+        <v>37.064999999999998</v>
       </c>
       <c r="O8">
-        <v>2891.6950000000002</v>
+        <v>900.07</v>
       </c>
       <c r="P8">
-        <v>1094.6130000000001</v>
+        <v>856.16499999999996</v>
       </c>
       <c r="Q8">
-        <v>158.672</v>
+        <v>194.97</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6270.6850000000004</v>
+        <v>931.96299999999997</v>
       </c>
       <c r="U8">
-        <v>456.81099999999998</v>
+        <v>576.596</v>
       </c>
       <c r="V8">
-        <v>635.58100000000002</v>
+        <v>37.831000000000003</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-417.44</v>
+        <v>564.83199999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>22.655000000000001</v>
+        <v>-376.95800000000003</v>
       </c>
       <c r="AA8">
-        <v>386.846</v>
+        <v>35.383000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>398.399</v>
+        <v>38.44</v>
       </c>
       <c r="D9">
-        <v>1385.5540000000001</v>
+        <v>103.69799999999999</v>
       </c>
       <c r="E9">
-        <v>930.48400000000004</v>
+        <v>101.24299999999999</v>
       </c>
       <c r="F9">
-        <v>1246.1959999999999</v>
+        <v>103.46599999999999</v>
       </c>
       <c r="G9">
-        <v>3055.3879999999999</v>
+        <v>1076.98</v>
       </c>
       <c r="H9">
-        <v>9630.6209999999992</v>
+        <v>1909.432</v>
       </c>
       <c r="I9">
-        <v>157.42400000000001</v>
+        <v>4.0590000000000002</v>
       </c>
       <c r="J9">
-        <v>658.44200000000001</v>
+        <v>861.18499999999995</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1521.0930000000001</v>
+        <v>47.402000000000001</v>
       </c>
       <c r="O9">
-        <v>2968.681</v>
+        <v>916.49599999999998</v>
       </c>
       <c r="P9">
-        <v>1111.6510000000001</v>
+        <v>861.18499999999995</v>
       </c>
       <c r="Q9">
-        <v>-5.0880000000000001</v>
+        <v>-173.83099999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6661.94</v>
+        <v>992.93600000000004</v>
       </c>
       <c r="U9">
-        <v>451.72300000000001</v>
+        <v>402.76499999999999</v>
       </c>
       <c r="V9">
-        <v>541.78399999999999</v>
+        <v>54.747</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-28.25</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-448.959</v>
+        <v>-181.33699999999999</v>
       </c>
       <c r="AA9">
-        <v>398.4</v>
+        <v>38.44</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>292.12700000000001</v>
+        <v>44.594000000000001</v>
       </c>
       <c r="D10">
-        <v>1417.941</v>
+        <v>123.652</v>
       </c>
       <c r="E10">
-        <v>955.24300000000005</v>
+        <v>105.208</v>
       </c>
       <c r="F10">
-        <v>1284.1130000000001</v>
+        <v>123.316</v>
       </c>
       <c r="G10">
-        <v>3244.337</v>
+        <v>977.61</v>
       </c>
       <c r="H10">
-        <v>10130.118</v>
+        <v>2059.6889999999999</v>
       </c>
       <c r="I10">
-        <v>203.999</v>
+        <v>3.8860000000000001</v>
       </c>
       <c r="J10">
-        <v>687.39599999999996</v>
+        <v>866.20500000000004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1657.3889999999999</v>
+        <v>56.225000000000001</v>
       </c>
       <c r="O10">
-        <v>3166.3229999999999</v>
+        <v>949.99900000000002</v>
       </c>
       <c r="P10">
-        <v>1140.7750000000001</v>
+        <v>866.20500000000004</v>
       </c>
       <c r="Q10">
-        <v>118.998</v>
+        <v>-52.636000000000003</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5950</v>
+        <v>995</v>
       </c>
       <c r="T10">
-        <v>6963.7950000000001</v>
+        <v>1109.69</v>
       </c>
       <c r="U10">
-        <v>570.721</v>
+        <v>350.12900000000002</v>
       </c>
       <c r="V10">
-        <v>507.90699999999998</v>
+        <v>66.001000000000005</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-15.523999999999999</v>
+        <v>6.6559999999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-305.91399999999999</v>
+        <v>-60.904000000000003</v>
       </c>
       <c r="AA10">
-        <v>292.12700000000001</v>
+        <v>44.594000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>426.74900000000002</v>
+        <v>41.2</v>
       </c>
       <c r="D11">
-        <v>1415.096</v>
+        <v>117.246</v>
       </c>
       <c r="E11">
-        <v>1021.04</v>
+        <v>97.481999999999999</v>
       </c>
       <c r="F11">
-        <v>1281.347</v>
+        <v>116.39400000000001</v>
       </c>
       <c r="G11">
-        <v>5328.8379999999997</v>
+        <v>1042.6189999999999</v>
       </c>
       <c r="H11">
-        <v>10164.717000000001</v>
+        <v>2118.4070000000002</v>
       </c>
       <c r="I11">
-        <v>165.20699999999999</v>
+        <v>1.8069999999999999</v>
       </c>
       <c r="J11">
-        <v>711.83100000000002</v>
+        <v>871.34500000000003</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1281.662</v>
+        <v>57.664999999999999</v>
       </c>
       <c r="O11">
-        <v>2825.1109999999999</v>
+        <v>958.03899999999999</v>
       </c>
       <c r="P11">
-        <v>915.14800000000002</v>
+        <v>871.34500000000003</v>
       </c>
       <c r="Q11">
-        <v>92.581000000000003</v>
+        <v>-14.018000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7339.6059999999998</v>
+        <v>1160.3679999999999</v>
       </c>
       <c r="U11">
-        <v>663.30200000000002</v>
+        <v>336.11099999999999</v>
       </c>
       <c r="V11">
-        <v>178.93899999999999</v>
+        <v>76.046999999999997</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-238.42400000000001</v>
+        <v>4.2779999999999996</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>200.82599999999999</v>
+        <v>-52.070999999999998</v>
       </c>
       <c r="AA11">
-        <v>426.74900000000002</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>490.67</v>
+        <v>28.765999999999998</v>
       </c>
       <c r="D12">
-        <v>1722.173</v>
+        <v>123.562</v>
       </c>
       <c r="E12">
-        <v>1111.453</v>
+        <v>105.72</v>
       </c>
       <c r="F12">
-        <v>1491.4449999999999</v>
+        <v>119.771</v>
       </c>
       <c r="G12">
-        <v>2523.221</v>
+        <v>928.04100000000005</v>
       </c>
       <c r="H12">
-        <v>10841.59</v>
+        <v>2158.5770000000002</v>
       </c>
       <c r="I12">
-        <v>163.09399999999999</v>
+        <v>51.44</v>
       </c>
       <c r="J12">
-        <v>726.38800000000003</v>
+        <v>876.64099999999996</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1304.0740000000001</v>
+        <v>52.246000000000002</v>
       </c>
       <c r="O12">
-        <v>2939.4450000000002</v>
+        <v>958.44600000000003</v>
       </c>
       <c r="P12">
-        <v>729.57600000000002</v>
+        <v>876.64099999999996</v>
       </c>
       <c r="Q12">
-        <v>-270.79500000000002</v>
+        <v>-43.573</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7902.1450000000004</v>
+        <v>1200.1310000000001</v>
       </c>
       <c r="U12">
-        <v>392.50700000000001</v>
+        <v>292.53800000000001</v>
       </c>
       <c r="V12">
-        <v>625.21199999999999</v>
+        <v>37.25</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-170.76300000000001</v>
+        <v>4.9059999999999997</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>2585.9070000000002</v>
+        <v>-16.076000000000001</v>
       </c>
       <c r="AA12">
-        <v>490.67</v>
+        <v>28.765999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>487.61599999999999</v>
+        <v>45.5</v>
       </c>
       <c r="D13">
-        <v>1827.28</v>
+        <v>138.53</v>
       </c>
       <c r="E13">
-        <v>1154.8610000000001</v>
+        <v>113.813</v>
       </c>
       <c r="F13">
-        <v>1592.5840000000001</v>
+        <v>137.89099999999999</v>
       </c>
       <c r="G13">
-        <v>2643.672</v>
+        <v>1046.9110000000001</v>
       </c>
       <c r="H13">
-        <v>11250.249</v>
+        <v>2239.895</v>
       </c>
       <c r="I13">
-        <v>166.709</v>
+        <v>65.715999999999994</v>
       </c>
       <c r="J13">
-        <v>694.89400000000001</v>
+        <v>881.95600000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1518.711</v>
+        <v>66.447000000000003</v>
       </c>
       <c r="O13">
-        <v>3124.5610000000001</v>
+        <v>977.95100000000002</v>
       </c>
       <c r="P13">
-        <v>698.279</v>
+        <v>881.95600000000002</v>
       </c>
       <c r="Q13">
-        <v>35.304000000000002</v>
+        <v>71.14</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>8125.6880000000001</v>
+        <v>1261.944</v>
       </c>
       <c r="U13">
-        <v>427.81099999999998</v>
+        <v>363.678</v>
       </c>
       <c r="V13">
-        <v>671.92200000000003</v>
+        <v>81.962000000000003</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-318.52199999999999</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-235.124</v>
+        <v>65.680000000000007</v>
       </c>
       <c r="AA13">
-        <v>487.61599999999999</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>457.30599999999998</v>
+        <v>-990.56299999999999</v>
       </c>
       <c r="D14">
-        <v>1965.55</v>
+        <v>299.846</v>
       </c>
       <c r="E14">
-        <v>1077.068</v>
+        <v>315.86599999999999</v>
       </c>
       <c r="F14">
-        <v>1706.9970000000001</v>
+        <v>99.486000000000004</v>
       </c>
       <c r="G14">
-        <v>3184.9340000000002</v>
+        <v>1838.664</v>
       </c>
       <c r="H14">
-        <v>11863.334999999999</v>
+        <v>9503.9449999999997</v>
       </c>
       <c r="I14">
-        <v>219.91300000000001</v>
+        <v>63.363999999999997</v>
       </c>
       <c r="J14">
-        <v>592.43299999999999</v>
+        <v>887.27</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1758.279</v>
+        <v>404.82499999999999</v>
       </c>
       <c r="O14">
-        <v>3242.4969999999998</v>
+        <v>2450.6170000000002</v>
       </c>
       <c r="P14">
-        <v>595.92700000000002</v>
+        <v>887.27</v>
       </c>
       <c r="Q14">
-        <v>174.751</v>
+        <v>-48.828000000000003</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>6850</v>
+        <v>3727</v>
       </c>
       <c r="T14">
-        <v>8620.8379999999997</v>
+        <v>7053.3280000000004</v>
       </c>
       <c r="U14">
-        <v>602.56200000000001</v>
+        <v>314.85000000000002</v>
       </c>
       <c r="V14">
-        <v>869.005</v>
+        <v>-25.292000000000002</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>11.180999999999999</v>
+        <v>39.264000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-639.64800000000002</v>
+        <v>-112.009</v>
       </c>
       <c r="AA14">
-        <v>457.30599999999998</v>
+        <v>-990.56299999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>479.95600000000002</v>
+        <v>-41.198</v>
       </c>
       <c r="D15">
-        <v>2129.7510000000002</v>
+        <v>541.74199999999996</v>
       </c>
       <c r="E15">
-        <v>1296.8030000000001</v>
+        <v>308.524</v>
       </c>
       <c r="F15">
-        <v>1850.5060000000001</v>
+        <v>481.375</v>
       </c>
       <c r="G15">
-        <v>3525.0239999999999</v>
+        <v>1568.164</v>
       </c>
       <c r="H15">
-        <v>12230.130999999999</v>
+        <v>9511.6029999999992</v>
       </c>
       <c r="I15">
-        <v>212.809</v>
+        <v>78.382000000000005</v>
       </c>
       <c r="J15">
-        <v>591.01199999999994</v>
+        <v>861.29300000000001</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-7.5750000000000002</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1594.2470000000001</v>
+        <v>362.834</v>
       </c>
       <c r="O15">
-        <v>3089.0680000000002</v>
+        <v>2314.1219999999998</v>
       </c>
       <c r="P15">
-        <v>594.56200000000001</v>
+        <v>861.29300000000001</v>
       </c>
       <c r="Q15">
-        <v>226.03899999999999</v>
+        <v>-12.065</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>9141.0630000000001</v>
+        <v>7197.4809999999998</v>
       </c>
       <c r="U15">
-        <v>828.601</v>
+        <v>302.78500000000003</v>
       </c>
       <c r="V15">
-        <v>104.626</v>
+        <v>205.536</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>114.875</v>
+        <v>98.308999999999997</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>91.301000000000002</v>
+        <v>-250.227</v>
       </c>
       <c r="AA15">
-        <v>479.95600000000002</v>
+        <v>-41.198</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>714.50599999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D16">
-        <v>2421.4520000000002</v>
+        <v>538.76300000000003</v>
       </c>
       <c r="E16">
-        <v>1289.2249999999999</v>
+        <v>331.24599999999998</v>
       </c>
       <c r="F16">
-        <v>2129.5650000000001</v>
+        <v>480.43400000000003</v>
       </c>
       <c r="G16">
-        <v>3925.0129999999999</v>
+        <v>1507.6</v>
       </c>
       <c r="H16">
-        <v>12917.998</v>
+        <v>9227.3420000000006</v>
       </c>
       <c r="I16">
-        <v>224.93100000000001</v>
+        <v>85.816999999999993</v>
       </c>
       <c r="J16">
-        <v>586.09100000000001</v>
+        <v>866.22900000000004</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1916.624</v>
+        <v>396.63600000000002</v>
       </c>
       <c r="O16">
-        <v>3352.7719999999999</v>
+        <v>2293.1750000000002</v>
       </c>
       <c r="P16">
-        <v>589.47699999999998</v>
+        <v>866.22900000000004</v>
       </c>
       <c r="Q16">
-        <v>34.595999999999997</v>
+        <v>180.52600000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>9565.2260000000006</v>
+        <v>6934.1670000000004</v>
       </c>
       <c r="U16">
-        <v>863.197</v>
+        <v>483.31099999999998</v>
       </c>
       <c r="V16">
-        <v>990.59299999999996</v>
+        <v>168.977</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-322.36</v>
+        <v>-287.654</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-561.38199999999995</v>
+        <v>377.28300000000002</v>
       </c>
       <c r="AA16">
-        <v>714.50599999999997</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>856.85799999999995</v>
+        <v>36.768000000000001</v>
       </c>
       <c r="D17">
-        <v>2511.4459999999999</v>
+        <v>543.27599999999995</v>
       </c>
       <c r="E17">
-        <v>1361.231</v>
+        <v>362.17599999999999</v>
       </c>
       <c r="F17">
-        <v>2208.8069999999998</v>
+        <v>478.81599999999997</v>
       </c>
       <c r="G17">
-        <v>4372.1109999999999</v>
+        <v>1264.2349999999999</v>
       </c>
       <c r="H17">
-        <v>13704.142</v>
+        <v>9020.598</v>
       </c>
       <c r="I17">
-        <v>233.62899999999999</v>
+        <v>77.492999999999995</v>
       </c>
       <c r="J17">
-        <v>583.97699999999998</v>
+        <v>845.70399999999995</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1940.6469999999999</v>
+        <v>428.601</v>
       </c>
       <c r="O17">
-        <v>3273.2570000000001</v>
+        <v>2310.3359999999998</v>
       </c>
       <c r="P17">
-        <v>587.197</v>
+        <v>845.70399999999995</v>
       </c>
       <c r="Q17">
-        <v>323.084</v>
+        <v>-304.29300000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>10430.885</v>
+        <v>6710.2619999999997</v>
       </c>
       <c r="U17">
-        <v>1186.2809999999999</v>
+        <v>179.018</v>
       </c>
       <c r="V17">
-        <v>914.03300000000002</v>
+        <v>172.55799999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-35.122999999999998</v>
+        <v>-310.923</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-325.63200000000001</v>
+        <v>-82.683999999999997</v>
       </c>
       <c r="AA17">
-        <v>856.85799999999995</v>
+        <v>36.768000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>883.48</v>
+        <v>28.689</v>
       </c>
       <c r="D18">
-        <v>2640.6509999999998</v>
+        <v>587.78</v>
       </c>
       <c r="E18">
-        <v>1575.8</v>
+        <v>416.08800000000002</v>
       </c>
       <c r="F18">
-        <v>2343.422</v>
+        <v>793.92100000000005</v>
       </c>
       <c r="G18">
-        <v>4535</v>
+        <v>1931.0440000000001</v>
       </c>
       <c r="H18">
-        <v>14314.7</v>
+        <v>9165.7579999999998</v>
       </c>
       <c r="I18">
-        <v>229.2</v>
+        <v>121.471</v>
       </c>
       <c r="J18">
-        <v>580.29999999999995</v>
+        <v>101.879</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2218.1</v>
+        <v>1260.748</v>
       </c>
       <c r="O18">
-        <v>3500.7</v>
+        <v>2339.357</v>
       </c>
       <c r="P18">
-        <v>583.4</v>
+        <v>850.30899999999997</v>
       </c>
       <c r="Q18">
-        <v>18.581</v>
+        <v>30.428999999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>7550</v>
+        <v>4266</v>
       </c>
       <c r="T18">
-        <v>10814</v>
+        <v>6826.4009999999998</v>
       </c>
       <c r="U18">
-        <v>1204.9000000000001</v>
+        <v>209.447</v>
       </c>
       <c r="V18">
-        <v>932.84799999999996</v>
+        <v>180.91499999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-513.29200000000003</v>
+        <v>49.307000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-68.486999999999995</v>
+        <v>-57.036999999999999</v>
       </c>
       <c r="AA18">
-        <v>883.48</v>
+        <v>28.689</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>822.5</v>
+        <v>43.457999999999998</v>
       </c>
       <c r="D19">
-        <v>2554.9</v>
+        <v>587.80200000000002</v>
       </c>
       <c r="E19">
-        <v>1701.951</v>
+        <v>412.96199999999999</v>
       </c>
       <c r="F19">
-        <v>2242.5</v>
+        <v>491.73</v>
       </c>
       <c r="G19">
-        <v>5258.8959999999997</v>
+        <v>1983.7270000000001</v>
       </c>
       <c r="H19">
-        <v>15219.454</v>
+        <v>9062.6939999999995</v>
       </c>
       <c r="I19">
-        <v>236.12799999999999</v>
+        <v>75.015000000000001</v>
       </c>
       <c r="J19">
-        <v>580.67200000000003</v>
+        <v>94.757000000000005</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-22.611000000000001</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1946.231</v>
+        <v>1228.529</v>
       </c>
       <c r="O19">
-        <v>3549.9960000000001</v>
+        <v>2281.7350000000001</v>
       </c>
       <c r="P19">
-        <v>583.92600000000004</v>
+        <v>846.43799999999999</v>
       </c>
       <c r="Q19">
-        <v>273.2</v>
+        <v>66.995999999999995</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>11669.458000000001</v>
+        <v>6780.9589999999998</v>
       </c>
       <c r="U19">
-        <v>1478.0509999999999</v>
+        <v>276.44299999999998</v>
       </c>
       <c r="V19">
-        <v>733</v>
+        <v>212.886</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>80.8</v>
+        <v>-141.17599999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>50.6</v>
+        <v>61.131999999999998</v>
       </c>
       <c r="AA19">
-        <v>822.5</v>
+        <v>43.457999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>927.3</v>
+        <v>34.506</v>
       </c>
       <c r="D20">
-        <v>2591.6</v>
+        <v>605.63400000000001</v>
       </c>
       <c r="E20">
-        <v>1634.5350000000001</v>
+        <v>394.959</v>
       </c>
       <c r="F20">
-        <v>2305.5</v>
+        <v>534.54100000000005</v>
       </c>
       <c r="G20">
-        <v>5618.9849999999997</v>
+        <v>1796.3019999999999</v>
       </c>
       <c r="H20">
-        <v>16759.170999999998</v>
+        <v>8268.152</v>
       </c>
       <c r="I20">
-        <v>282.702</v>
+        <v>66.004000000000005</v>
       </c>
       <c r="J20">
-        <v>576.20699999999999</v>
+        <v>42.405000000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2555.8319999999999</v>
+        <v>540.65300000000002</v>
       </c>
       <c r="O20">
-        <v>4186.1729999999998</v>
+        <v>1522.338</v>
       </c>
       <c r="P20">
-        <v>579.46900000000005</v>
+        <v>42.405000000000001</v>
       </c>
       <c r="Q20">
-        <v>-196</v>
+        <v>361.95699999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>12572.998</v>
+        <v>6745.8140000000003</v>
       </c>
       <c r="U20">
-        <v>1282.078</v>
+        <v>638.4</v>
       </c>
       <c r="V20">
-        <v>1047.3</v>
+        <v>228.691</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-3.6</v>
+        <v>-894.51800000000003</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-1120.0999999999999</v>
+        <v>709.93299999999999</v>
       </c>
       <c r="AA20">
-        <v>927.3</v>
+        <v>34.503999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>965.6</v>
+        <v>27.184999999999999</v>
       </c>
       <c r="D21">
-        <v>2777.9</v>
+        <v>596.21100000000001</v>
       </c>
       <c r="E21">
-        <v>1647.568</v>
+        <v>403.07799999999997</v>
       </c>
       <c r="F21">
-        <v>2467.9</v>
+        <v>506.65</v>
       </c>
       <c r="G21">
-        <v>9270.8729999999996</v>
+        <v>1535.212</v>
       </c>
       <c r="H21">
-        <v>20728.367999999999</v>
+        <v>8314.6090000000004</v>
       </c>
       <c r="I21">
-        <v>251.22800000000001</v>
+        <v>48.21</v>
       </c>
       <c r="J21">
-        <v>6529.2749999999996</v>
+        <v>42.924999999999997</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2633.9679999999998</v>
+        <v>558.94500000000005</v>
       </c>
       <c r="O21">
-        <v>10161.424999999999</v>
+        <v>1516.7819999999999</v>
       </c>
       <c r="P21">
-        <v>6534.4459999999999</v>
+        <v>42.924999999999997</v>
       </c>
       <c r="Q21">
-        <v>2806.9</v>
+        <v>-341.90800000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>3824</v>
       </c>
       <c r="T21">
-        <v>10566.942999999999</v>
+        <v>6797.8270000000002</v>
       </c>
       <c r="U21">
-        <v>4089.0030000000002</v>
+        <v>296.49200000000002</v>
       </c>
       <c r="V21">
-        <v>895.4</v>
+        <v>173.18600000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2907.6</v>
+        <v>19.291</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-437.2</v>
+        <v>-474.56</v>
       </c>
       <c r="AA21">
-        <v>965.6</v>
+        <v>27.184999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>831.6</v>
+        <v>55.561999999999998</v>
       </c>
       <c r="D22">
-        <v>2839.3</v>
+        <v>632.85299999999995</v>
       </c>
       <c r="E22">
-        <v>1541.5</v>
+        <v>421.57100000000003</v>
       </c>
       <c r="F22">
-        <v>2507.5</v>
+        <v>551.30100000000004</v>
       </c>
       <c r="G22">
-        <v>6700.3</v>
+        <v>1632.8510000000001</v>
       </c>
       <c r="H22">
-        <v>19504.8</v>
+        <v>8381.7170000000006</v>
       </c>
       <c r="I22">
-        <v>267.39999999999998</v>
+        <v>99.78</v>
       </c>
       <c r="J22">
-        <v>6521.5</v>
+        <v>43.444000000000003</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2577.6999999999998</v>
+        <v>597.80600000000004</v>
       </c>
       <c r="O22">
-        <v>10129.9</v>
+        <v>1475.8409999999999</v>
       </c>
       <c r="P22">
-        <v>6526.3</v>
+        <v>43.444000000000003</v>
       </c>
       <c r="Q22">
-        <v>-2781</v>
+        <v>271.67599999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>7350</v>
+        <v>3340</v>
       </c>
       <c r="T22">
-        <v>9374.9</v>
+        <v>6905.8760000000002</v>
       </c>
       <c r="U22">
-        <v>1308</v>
+        <v>568.16800000000001</v>
       </c>
       <c r="V22">
-        <v>1040.4000000000001</v>
+        <v>274.74</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-1998.4</v>
+        <v>67.88</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-1295.2</v>
+        <v>31.481999999999999</v>
       </c>
       <c r="AA22">
-        <v>831.6</v>
+        <v>55.561999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>970.9</v>
+        <v>122.96899999999999</v>
       </c>
       <c r="D23">
-        <v>2726.8</v>
+        <v>611.17499999999995</v>
       </c>
       <c r="E23">
-        <v>1710.2</v>
+        <v>417.416</v>
       </c>
       <c r="F23">
-        <v>2413.8000000000002</v>
+        <v>543.68100000000004</v>
       </c>
       <c r="G23">
-        <v>7201.3</v>
+        <v>1595.681</v>
       </c>
       <c r="H23">
-        <v>20674.7</v>
+        <v>8524.2260000000006</v>
       </c>
       <c r="I23">
-        <v>271.3</v>
+        <v>58.119</v>
       </c>
       <c r="J23">
-        <v>6535.6</v>
+        <v>43.978000000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2776.6</v>
+        <v>520.79700000000003</v>
       </c>
       <c r="O23">
-        <v>10346.6</v>
+        <v>1381.384</v>
       </c>
       <c r="P23">
-        <v>6540.5</v>
+        <v>43.978000000000002</v>
       </c>
       <c r="Q23">
-        <v>-177.3</v>
+        <v>-32.302999999999997</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>10328.1</v>
+        <v>7142.8419999999996</v>
       </c>
       <c r="U23">
-        <v>1130.7</v>
+        <v>535.86500000000001</v>
       </c>
       <c r="V23">
-        <v>1015.8</v>
+        <v>156.25299999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-5</v>
+        <v>83.656000000000006</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-733.3</v>
+        <v>-240.43299999999999</v>
       </c>
       <c r="AA23">
-        <v>970.9</v>
+        <v>122.96899999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1049.8</v>
+        <v>-170.613</v>
       </c>
       <c r="D24">
-        <v>2894.2</v>
+        <v>660.04100000000005</v>
       </c>
       <c r="E24">
-        <v>1627.1</v>
+        <v>449.774</v>
       </c>
       <c r="F24">
-        <v>2523.9</v>
+        <v>582.048</v>
       </c>
       <c r="G24">
-        <v>7447.7</v>
+        <v>1449.74</v>
       </c>
       <c r="H24">
-        <v>21514.799999999999</v>
+        <v>8340.1620000000003</v>
       </c>
       <c r="I24">
-        <v>225.9</v>
+        <v>62.28</v>
       </c>
       <c r="J24">
-        <v>6538.3</v>
+        <v>44.526000000000003</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2516.1999999999998</v>
+        <v>499.98200000000003</v>
       </c>
       <c r="O24">
-        <v>10111.1</v>
+        <v>1331.5709999999999</v>
       </c>
       <c r="P24">
-        <v>6543.1</v>
+        <v>44.526000000000003</v>
       </c>
       <c r="Q24">
-        <v>231.3</v>
+        <v>-190.761</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>11403.7</v>
+        <v>7008.5910000000003</v>
       </c>
       <c r="U24">
-        <v>1362</v>
+        <v>345.10399999999998</v>
       </c>
       <c r="V24">
-        <v>998.2</v>
+        <v>183.37200000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-15.8</v>
+        <v>10.634</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-276.39999999999998</v>
+        <v>-69.837000000000003</v>
       </c>
       <c r="AA24">
-        <v>1049.8</v>
+        <v>-170.613</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1032.9000000000001</v>
+        <v>156.59899999999999</v>
       </c>
       <c r="D25">
-        <v>2955.8</v>
+        <v>703.49199999999996</v>
       </c>
       <c r="E25">
-        <v>1773</v>
+        <v>439.83800000000002</v>
       </c>
       <c r="F25">
-        <v>2538.9</v>
+        <v>636.70000000000005</v>
       </c>
       <c r="G25">
-        <v>8091.8</v>
+        <v>1385.1569999999999</v>
       </c>
       <c r="H25">
-        <v>22104.9</v>
+        <v>8186.558</v>
       </c>
       <c r="I25">
-        <v>274</v>
+        <v>62.822000000000003</v>
       </c>
       <c r="J25">
-        <v>6529.6</v>
+        <v>45.073999999999998</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2499.6999999999998</v>
+        <v>495.01</v>
       </c>
       <c r="O25">
-        <v>9990.1</v>
+        <v>1291.684</v>
       </c>
       <c r="P25">
-        <v>6534.5</v>
+        <v>45.073999999999998</v>
       </c>
       <c r="Q25">
-        <v>722.8</v>
+        <v>69.489999999999995</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>12114.8</v>
+        <v>6894.8739999999998</v>
       </c>
       <c r="U25">
-        <v>2084.8000000000002</v>
+        <v>414.59399999999999</v>
       </c>
       <c r="V25">
-        <v>991.3</v>
+        <v>259.83800000000002</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-305.3</v>
+        <v>-311.26799999999997</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>563.79999999999995</v>
+        <v>175.524</v>
       </c>
       <c r="AA25">
-        <v>1032.9000000000001</v>
+        <v>156.59899999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>649.20000000000005</v>
+        <v>108.556</v>
       </c>
       <c r="D26">
-        <v>2872</v>
+        <v>708.34100000000001</v>
       </c>
       <c r="E26">
-        <v>1742.2</v>
+        <v>486.06099999999998</v>
       </c>
       <c r="F26">
-        <v>2545.9</v>
+        <v>646.23800000000006</v>
       </c>
       <c r="G26">
-        <v>8732.2000000000007</v>
+        <v>1712.567</v>
       </c>
       <c r="H26">
-        <v>22876.799999999999</v>
+        <v>8552.8080000000009</v>
       </c>
       <c r="I26">
-        <v>279.8</v>
+        <v>100.45699999999999</v>
       </c>
       <c r="J26">
-        <v>6512.7</v>
+        <v>96.694000000000003</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3419.9</v>
+        <v>582.85500000000002</v>
       </c>
       <c r="O26">
-        <v>10748.2</v>
+        <v>1403.03</v>
       </c>
       <c r="P26">
-        <v>6517.4</v>
+        <v>96.694000000000003</v>
       </c>
       <c r="Q26">
-        <v>241.7</v>
+        <v>246.78299999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>7400</v>
+        <v>3750</v>
       </c>
       <c r="T26">
-        <v>12128.6</v>
+        <v>7149.7780000000002</v>
       </c>
       <c r="U26">
-        <v>2326.5</v>
+        <v>661.37699999999995</v>
       </c>
       <c r="V26">
-        <v>1581.9</v>
+        <v>241.80500000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-726.5</v>
+        <v>68.567999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-88.4</v>
+        <v>-37.479999999999997</v>
       </c>
       <c r="AA26">
-        <v>649.20000000000005</v>
+        <v>108.556</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>747.6</v>
+        <v>131.501</v>
       </c>
       <c r="D27">
-        <v>2810.7</v>
+        <v>715.91</v>
       </c>
       <c r="E27">
-        <v>1826</v>
+        <v>476.32299999999998</v>
       </c>
       <c r="F27">
-        <v>2426.1</v>
+        <v>633.96</v>
       </c>
       <c r="G27">
-        <v>6859.7</v>
+        <v>1941.3409999999999</v>
       </c>
       <c r="H27">
-        <v>21195.9</v>
+        <v>8709.58</v>
       </c>
       <c r="I27">
-        <v>316.39999999999998</v>
+        <v>102.18300000000001</v>
       </c>
       <c r="J27">
-        <v>5952.7</v>
+        <v>52.042999999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-3.7029999999999998</v>
       </c>
       <c r="N27">
-        <v>2992.5</v>
+        <v>500.44799999999998</v>
       </c>
       <c r="O27">
-        <v>9728.5</v>
+        <v>1362.414</v>
       </c>
       <c r="P27">
-        <v>6514.2</v>
+        <v>61.191000000000003</v>
       </c>
       <c r="Q27">
-        <v>-1402.5</v>
+        <v>119.563</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>11467.4</v>
+        <v>7347.1660000000002</v>
       </c>
       <c r="U27">
-        <v>924</v>
+        <v>780.94</v>
       </c>
       <c r="V27">
-        <v>235.2</v>
+        <v>262.32900000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-901.4</v>
+        <v>24.401</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>627.6</v>
+        <v>-87.760999999999996</v>
       </c>
       <c r="AA27">
-        <v>747.6</v>
+        <v>131.501</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>862.8</v>
+        <v>186.14</v>
       </c>
       <c r="D28">
-        <v>3078.4</v>
+        <v>773.17600000000004</v>
       </c>
       <c r="E28">
-        <v>2133.1</v>
+        <v>521.98599999999999</v>
       </c>
       <c r="F28">
-        <v>2712.2</v>
+        <v>689.11300000000006</v>
       </c>
       <c r="G28">
-        <v>7108.7</v>
+        <v>2694.0059999999999</v>
       </c>
       <c r="H28">
-        <v>21759</v>
+        <v>8935.7150000000001</v>
       </c>
       <c r="I28">
-        <v>330.3</v>
+        <v>99.44</v>
       </c>
       <c r="J28">
-        <v>5954</v>
+        <v>51.347999999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3379.7</v>
+        <v>3464.9290000000001</v>
       </c>
       <c r="O28">
-        <v>10185.4</v>
+        <v>4299.0159999999996</v>
       </c>
       <c r="P28">
-        <v>6513.9</v>
+        <v>63.244999999999997</v>
       </c>
       <c r="Q28">
-        <v>245.6</v>
+        <v>830.64099999999996</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>11573.6</v>
+        <v>4636.6989999999996</v>
       </c>
       <c r="U28">
-        <v>1169.5</v>
+        <v>1611.5809999999999</v>
       </c>
       <c r="V28">
-        <v>1169.2</v>
+        <v>202.018</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-751</v>
+        <v>64.412000000000006</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>420.9</v>
+        <v>643.94000000000005</v>
       </c>
       <c r="AA28">
-        <v>862.8</v>
+        <v>186.14</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1226.0999999999999</v>
+        <v>119.381</v>
       </c>
       <c r="D29">
-        <v>3077.8</v>
+        <v>789.23099999999999</v>
       </c>
       <c r="E29">
-        <v>2085.5</v>
+        <v>540.07899999999995</v>
       </c>
       <c r="F29">
-        <v>2707.8</v>
+        <v>707.61800000000005</v>
       </c>
       <c r="G29">
-        <v>7568</v>
+        <v>1620.47</v>
       </c>
       <c r="H29">
-        <v>23073.200000000001</v>
+        <v>7816.375</v>
       </c>
       <c r="I29">
-        <v>298.7</v>
+        <v>92.335999999999999</v>
       </c>
       <c r="J29">
-        <v>5938.3</v>
+        <v>50.113</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3448.4</v>
+        <v>1988.7439999999999</v>
       </c>
       <c r="O29">
-        <v>10224.299999999999</v>
+        <v>2823.6759999999999</v>
       </c>
       <c r="P29">
-        <v>6511.5</v>
+        <v>1560.2260000000001</v>
       </c>
       <c r="Q29">
-        <v>378.5</v>
+        <v>-1174.2550000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>12848.9</v>
+        <v>4992.6989999999996</v>
       </c>
       <c r="U29">
-        <v>1548.1</v>
+        <v>437.32600000000002</v>
       </c>
       <c r="V29">
-        <v>1628.3</v>
+        <v>210.42599999999999</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-19.5</v>
+        <v>-1317.684</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-669.8</v>
+        <v>25.111000000000001</v>
       </c>
       <c r="AA29">
-        <v>1226.0999999999999</v>
+        <v>119.381</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-297.39999999999998</v>
+        <v>201.15</v>
       </c>
       <c r="D30">
-        <v>3307</v>
+        <v>893.3</v>
       </c>
       <c r="E30">
-        <v>2319.6</v>
+        <v>559.33199999999999</v>
       </c>
       <c r="F30">
-        <v>2797.8</v>
+        <v>805.73400000000004</v>
       </c>
       <c r="G30">
-        <v>7873.3</v>
+        <v>2368.4070000000002</v>
       </c>
       <c r="H30">
-        <v>23652.6</v>
+        <v>8628.8150000000005</v>
       </c>
       <c r="I30">
-        <v>395.5</v>
+        <v>90.671999999999997</v>
       </c>
       <c r="J30">
-        <v>5935</v>
+        <v>51.843000000000004</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1500.8</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3368.2</v>
+        <v>2189.1750000000002</v>
       </c>
       <c r="O30">
-        <v>11054.5</v>
+        <v>3094.52</v>
       </c>
       <c r="P30">
-        <v>5938.2</v>
+        <v>1562.9780000000001</v>
       </c>
       <c r="Q30">
-        <v>25.7</v>
+        <v>222.33600000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7300</v>
+        <v>4300</v>
       </c>
       <c r="T30">
-        <v>12598.1</v>
+        <v>5534.2950000000001</v>
       </c>
       <c r="U30">
-        <v>1573.8</v>
+        <v>659.66200000000003</v>
       </c>
       <c r="V30">
-        <v>1518.3</v>
+        <v>345.86200000000002</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-708.1</v>
+        <v>493.65100000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-168</v>
+        <v>-296.42700000000002</v>
       </c>
       <c r="AA30">
-        <v>-297.39999999999998</v>
+        <v>201.15</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1172.9000000000001</v>
+        <v>163.09700000000001</v>
       </c>
       <c r="D31">
-        <v>3131.1</v>
+        <v>942.18600000000004</v>
       </c>
       <c r="E31">
-        <v>2492.6999999999998</v>
+        <v>611.04</v>
       </c>
       <c r="F31">
-        <v>2685.1</v>
+        <v>841.25199999999995</v>
       </c>
       <c r="G31">
-        <v>10195.4</v>
+        <v>2140.4749999999999</v>
       </c>
       <c r="H31">
-        <v>26090.1</v>
+        <v>8170.6530000000002</v>
       </c>
       <c r="I31">
-        <v>345.8</v>
+        <v>114.842</v>
       </c>
       <c r="J31">
-        <v>5929.4</v>
+        <v>1060.4480000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="N31">
-        <v>3152.1</v>
+        <v>707.17200000000003</v>
       </c>
       <c r="O31">
-        <v>12052.6</v>
+        <v>2637.9450000000002</v>
       </c>
       <c r="P31">
-        <v>5932.7</v>
+        <v>1073.289</v>
       </c>
       <c r="Q31">
-        <v>2534.1999999999998</v>
+        <v>28.837</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>14037.5</v>
+        <v>5532.7079999999996</v>
       </c>
       <c r="U31">
-        <v>4108</v>
+        <v>688.49900000000002</v>
       </c>
       <c r="V31">
-        <v>1457.1</v>
+        <v>366.98500000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-268.60000000000002</v>
+        <v>-787.53200000000004</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>2149.6999999999998</v>
+        <v>477.09199999999998</v>
       </c>
       <c r="AA31">
-        <v>1172.9000000000001</v>
+        <v>163.09700000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>866.6</v>
+        <v>206.62799999999999</v>
       </c>
       <c r="D32">
-        <v>3356.5</v>
+        <v>993.44399999999996</v>
       </c>
       <c r="E32">
-        <v>2432.9</v>
+        <v>667.01800000000003</v>
       </c>
       <c r="F32">
-        <v>2935.5</v>
+        <v>901.04300000000001</v>
       </c>
       <c r="G32">
-        <v>7432.1</v>
+        <v>2161.0279999999998</v>
       </c>
       <c r="H32">
-        <v>23952.9</v>
+        <v>8172.826</v>
       </c>
       <c r="I32">
-        <v>295.7</v>
+        <v>116.755</v>
       </c>
       <c r="J32">
-        <v>5928.4</v>
+        <v>1038.086</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3152.4</v>
+        <v>885.44100000000003</v>
       </c>
       <c r="O32">
-        <v>11699.2</v>
+        <v>2649.895</v>
       </c>
       <c r="P32">
-        <v>5928.4</v>
+        <v>1049.6300000000001</v>
       </c>
       <c r="Q32">
-        <v>-2857.8</v>
+        <v>-222.006</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>12253.7</v>
+        <v>5522.9309999999996</v>
       </c>
       <c r="U32">
-        <v>1250.2</v>
+        <v>466.49299999999999</v>
       </c>
       <c r="V32">
-        <v>1099.3</v>
+        <v>276.02199999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-2791.5</v>
+        <v>-250.12899999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-584.20000000000005</v>
+        <v>-156.898</v>
       </c>
       <c r="AA32">
-        <v>866.6</v>
+        <v>206.62799999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1444.4</v>
+        <v>206.78800000000001</v>
       </c>
       <c r="D33">
-        <v>3439</v>
+        <v>1092.9639999999999</v>
       </c>
       <c r="E33">
-        <v>2525.6999999999998</v>
+        <v>681.178</v>
       </c>
       <c r="F33">
-        <v>2978.2</v>
+        <v>985.471</v>
       </c>
       <c r="G33">
-        <v>8719</v>
+        <v>2639.08</v>
       </c>
       <c r="H33">
-        <v>25492.2</v>
+        <v>8535.2080000000005</v>
       </c>
       <c r="I33">
-        <v>342.3</v>
+        <v>123.512</v>
       </c>
       <c r="J33">
-        <v>5931.1</v>
+        <v>1042.4269999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3174.9</v>
+        <v>985.87199999999996</v>
       </c>
       <c r="O33">
-        <v>11732.4</v>
+        <v>2766.73</v>
       </c>
       <c r="P33">
-        <v>5931.1</v>
+        <v>1052.6420000000001</v>
       </c>
       <c r="Q33">
-        <v>1136.5</v>
+        <v>544.20799999999997</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>13759.8</v>
+        <v>5768.4780000000001</v>
       </c>
       <c r="U33">
-        <v>2386.6999999999998</v>
+        <v>1010.701</v>
       </c>
       <c r="V33">
-        <v>1735.9</v>
+        <v>512.19299999999998</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>25.1</v>
+        <v>134.828</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-127.5</v>
+        <v>-3.4449999999999998</v>
       </c>
       <c r="AA33">
-        <v>1444.4</v>
+        <v>206.78800000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>946.8</v>
+        <v>206.654</v>
       </c>
       <c r="D34">
-        <v>3526.3</v>
+        <v>1068.913</v>
       </c>
       <c r="E34">
-        <v>2485.4</v>
+        <v>653.59</v>
       </c>
       <c r="F34">
-        <v>3037.8</v>
+        <v>967.75199999999995</v>
       </c>
       <c r="G34">
-        <v>7640.9</v>
+        <v>2458</v>
       </c>
       <c r="H34">
-        <v>25288.9</v>
+        <v>8478.991</v>
       </c>
       <c r="I34">
-        <v>370.5</v>
+        <v>107.417</v>
       </c>
       <c r="J34">
-        <v>5936.5</v>
+        <v>1085.431</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3295.2</v>
+        <v>923.22199999999998</v>
       </c>
       <c r="O34">
-        <v>12257.3</v>
+        <v>2645.0390000000002</v>
       </c>
       <c r="P34">
-        <v>5936.5</v>
+        <v>1113.098</v>
       </c>
       <c r="Q34">
-        <v>-1162.0999999999999</v>
+        <v>-388.31599999999997</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7800</v>
+        <v>4700</v>
       </c>
       <c r="T34">
-        <v>13031.6</v>
+        <v>5833.9520000000002</v>
       </c>
       <c r="U34">
-        <v>1224.5999999999999</v>
+        <v>622.38499999999999</v>
       </c>
       <c r="V34">
-        <v>1895.4</v>
+        <v>407.245</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-1437</v>
+        <v>-331.79199999999997</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-1098.5999999999999</v>
+        <v>-559.88599999999997</v>
       </c>
       <c r="AA34">
-        <v>946.8</v>
+        <v>206.654</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1408.8</v>
+        <v>243.98699999999999</v>
       </c>
       <c r="D35">
-        <v>3489.8</v>
+        <v>1036.4839999999999</v>
       </c>
       <c r="E35">
-        <v>2616</v>
+        <v>661.88</v>
       </c>
       <c r="F35">
-        <v>2887.8</v>
+        <v>938.28700000000003</v>
       </c>
       <c r="G35">
-        <v>8942.6</v>
+        <v>2480.6529999999998</v>
       </c>
       <c r="H35">
-        <v>26445.5</v>
+        <v>8575.2060000000001</v>
       </c>
       <c r="I35">
-        <v>378</v>
+        <v>104.271</v>
       </c>
       <c r="J35">
-        <v>5943.2</v>
+        <v>1082.9090000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>3148.7</v>
+        <v>807.76700000000005</v>
       </c>
       <c r="O35">
-        <v>12623.5</v>
+        <v>2554.9520000000002</v>
       </c>
       <c r="P35">
-        <v>6451.8</v>
+        <v>1109.3969999999999</v>
       </c>
       <c r="Q35">
-        <v>1018.6</v>
+        <v>141.71899999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>13822</v>
+        <v>6020.2539999999999</v>
       </c>
       <c r="U35">
-        <v>2243.1999999999998</v>
+        <v>764.10400000000004</v>
       </c>
       <c r="V35">
-        <v>1459.5</v>
+        <v>300.75</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-679.3</v>
+        <v>-66.927999999999997</v>
       </c>
       <c r="Y35">
-        <v>436.1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>664.2</v>
+        <v>-84.656000000000006</v>
       </c>
       <c r="AA35">
-        <v>1408.8</v>
+        <v>243.98699999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1494.1</v>
+        <v>142.845</v>
       </c>
       <c r="D36">
-        <v>3616.7</v>
+        <v>1093.289</v>
       </c>
       <c r="E36">
-        <v>2517.1</v>
+        <v>709.49199999999996</v>
       </c>
       <c r="F36">
-        <v>3140.4</v>
+        <v>1002.568</v>
       </c>
       <c r="G36">
-        <v>7909.8</v>
+        <v>2744.2779999999998</v>
       </c>
       <c r="H36">
-        <v>26287.599999999999</v>
+        <v>8777.1959999999999</v>
       </c>
       <c r="I36">
-        <v>377.1</v>
+        <v>210.941</v>
       </c>
       <c r="J36">
-        <v>5948.5</v>
+        <v>1085.607</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3210.9</v>
+        <v>803.92600000000004</v>
       </c>
       <c r="O36">
-        <v>13338.8</v>
+        <v>2531.491</v>
       </c>
       <c r="P36">
-        <v>6443.8</v>
+        <v>1100.3040000000001</v>
       </c>
       <c r="Q36">
-        <v>-519.79999999999995</v>
+        <v>22.7</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>12948.8</v>
+        <v>6245.7049999999999</v>
       </c>
       <c r="U36">
-        <v>1723.4</v>
+        <v>786.80399999999997</v>
       </c>
       <c r="V36">
-        <v>1964</v>
+        <v>228.55099999999999</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-2375.6999999999998</v>
+        <v>3.1509999999999998</v>
       </c>
       <c r="Y36">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>826.2</v>
+        <v>-176.834</v>
       </c>
       <c r="AA36">
-        <v>1494.1</v>
+        <v>142.845</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1545.9</v>
+        <v>277.66300000000001</v>
       </c>
       <c r="D37">
-        <v>3600.1</v>
+        <v>1120.518</v>
       </c>
       <c r="E37">
-        <v>2515.8000000000002</v>
+        <v>744.274</v>
       </c>
       <c r="F37">
-        <v>3170.1</v>
+        <v>1027.0319999999999</v>
       </c>
       <c r="G37">
-        <v>8448.2000000000007</v>
+        <v>2572.259</v>
       </c>
       <c r="H37">
-        <v>27484</v>
+        <v>9026.4369999999999</v>
       </c>
       <c r="I37">
-        <v>382.2</v>
+        <v>108.547</v>
       </c>
       <c r="J37">
-        <v>4458.2</v>
+        <v>1085.8440000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4432.2</v>
+        <v>721.36800000000005</v>
       </c>
       <c r="O37">
-        <v>13492.2</v>
+        <v>2428.627</v>
       </c>
       <c r="P37">
-        <v>6434.6</v>
+        <v>1101.296</v>
       </c>
       <c r="Q37">
-        <v>620.5</v>
+        <v>-201.01599999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>13991.8</v>
+        <v>6597.81</v>
       </c>
       <c r="U37">
-        <v>2343.9</v>
+        <v>585.78800000000001</v>
       </c>
       <c r="V37">
-        <v>1694.9</v>
+        <v>266.25700000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-689</v>
+        <v>6.383</v>
       </c>
       <c r="Y37">
-        <v>410.5</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1198.9000000000001</v>
+        <v>-436.02499999999998</v>
       </c>
       <c r="AA37">
-        <v>1545.9</v>
+        <v>277.66300000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1439.7</v>
+        <v>305.637</v>
       </c>
       <c r="D38">
-        <v>3671.3</v>
+        <v>1127.056</v>
       </c>
       <c r="E38">
-        <v>2470.6999999999998</v>
+        <v>744.99699999999996</v>
       </c>
       <c r="F38">
-        <v>3224.2</v>
+        <v>1027.356</v>
       </c>
       <c r="G38">
-        <v>8381.7999999999993</v>
+        <v>2480.5949999999998</v>
       </c>
       <c r="H38">
-        <v>27234.3</v>
+        <v>8551.8539999999994</v>
       </c>
       <c r="I38">
-        <v>530.79999999999995</v>
+        <v>118.53400000000001</v>
       </c>
       <c r="J38">
-        <v>4459</v>
+        <v>1080.2070000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4863.8</v>
+        <v>714.94200000000001</v>
       </c>
       <c r="O38">
-        <v>13895.2</v>
+        <v>2289.9720000000002</v>
       </c>
       <c r="P38">
-        <v>6441.1</v>
+        <v>1099.9690000000001</v>
       </c>
       <c r="Q38">
-        <v>569.79999999999995</v>
+        <v>-3.899</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>7400</v>
+        <v>4750</v>
       </c>
       <c r="T38">
-        <v>13339.1</v>
+        <v>6261.8819999999996</v>
       </c>
       <c r="U38">
-        <v>2913.7</v>
+        <v>581.88900000000001</v>
       </c>
       <c r="V38">
-        <v>1960.2</v>
+        <v>279.33999999999997</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-2116.4</v>
+        <v>-666.75699999999995</v>
       </c>
       <c r="Y38">
-        <v>412.7</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>942.2</v>
+        <v>438.13900000000001</v>
       </c>
       <c r="AA38">
-        <v>1439.7</v>
+        <v>305.637</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1399.1</v>
+        <v>217.44200000000001</v>
       </c>
       <c r="D39">
-        <v>3534.3</v>
+        <v>1108.8599999999999</v>
       </c>
       <c r="E39">
-        <v>2604.1999999999998</v>
+        <v>766.005</v>
       </c>
       <c r="F39">
-        <v>3080</v>
+        <v>1011.8049999999999</v>
       </c>
       <c r="G39">
-        <v>8007.2</v>
+        <v>2409.0120000000002</v>
       </c>
       <c r="H39">
-        <v>26119.200000000001</v>
+        <v>8217.3230000000003</v>
       </c>
       <c r="I39">
-        <v>389</v>
+        <v>121.35599999999999</v>
       </c>
       <c r="J39">
-        <v>4459.8999999999996</v>
+        <v>1076.201</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-1.8260000000000001</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-2.0110000000000001</v>
       </c>
       <c r="N39">
-        <v>4638.6000000000004</v>
+        <v>682.33</v>
       </c>
       <c r="O39">
-        <v>13582.3</v>
+        <v>2266.7289999999998</v>
       </c>
       <c r="P39">
-        <v>6365.4</v>
+        <v>1095.316</v>
       </c>
       <c r="Q39">
-        <v>-322.39999999999998</v>
+        <v>57.67</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>12536.9</v>
+        <v>5950.5940000000001</v>
       </c>
       <c r="U39">
-        <v>2591.3000000000002</v>
+        <v>639.55899999999997</v>
       </c>
       <c r="V39">
-        <v>1467.3</v>
+        <v>336.89499999999998</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-2245.3000000000002</v>
+        <v>-523.46</v>
       </c>
       <c r="Y39">
-        <v>403.7</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>705.1</v>
+        <v>327.92200000000003</v>
       </c>
       <c r="AA39">
-        <v>1399.1</v>
+        <v>217.44200000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>1542.1</v>
+        <v>293.43799999999999</v>
       </c>
       <c r="D40">
-        <v>3681.6</v>
+        <v>1212.702</v>
       </c>
       <c r="E40">
-        <v>2574.6999999999998</v>
+        <v>799.03599999999994</v>
       </c>
       <c r="F40">
-        <v>3270.5</v>
+        <v>1105.7170000000001</v>
       </c>
       <c r="G40">
-        <v>8493.7999999999993</v>
+        <v>2255.2310000000002</v>
       </c>
       <c r="H40">
-        <v>25511.8</v>
+        <v>7502.15</v>
       </c>
       <c r="I40">
-        <v>383.9</v>
+        <v>144.476</v>
       </c>
       <c r="J40">
-        <v>7423.8</v>
+        <v>1069.7249999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3447.1</v>
+        <v>755.65800000000002</v>
       </c>
       <c r="O40">
-        <v>14222.6</v>
+        <v>2290.86</v>
       </c>
       <c r="P40">
-        <v>7838.6</v>
+        <v>1079.8209999999999</v>
       </c>
       <c r="Q40">
-        <v>-206.4</v>
+        <v>81.403000000000006</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>11289.2</v>
+        <v>5211.29</v>
       </c>
       <c r="U40">
-        <v>2384.9</v>
+        <v>720.96199999999999</v>
       </c>
       <c r="V40">
-        <v>1948.5</v>
+        <v>428.48099999999999</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-1313.4</v>
+        <v>-1026.126</v>
       </c>
       <c r="Y40">
-        <v>414.8</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-578.6</v>
+        <v>731.01499999999999</v>
       </c>
       <c r="AA40">
-        <v>1542.1</v>
+        <v>293.43799999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>701.5</v>
+        <v>254.11500000000001</v>
       </c>
       <c r="D41">
-        <v>3376.1</v>
+        <v>1175.789</v>
       </c>
       <c r="E41">
-        <v>2552.1</v>
+        <v>838.31500000000005</v>
       </c>
       <c r="F41">
-        <v>2927</v>
+        <v>1079.8710000000001</v>
       </c>
       <c r="G41">
-        <v>7843.1</v>
+        <v>2131.1309999999999</v>
       </c>
       <c r="H41">
-        <v>24934.1</v>
+        <v>7394.1469999999999</v>
       </c>
       <c r="I41">
-        <v>398.4</v>
+        <v>143.69900000000001</v>
       </c>
       <c r="J41">
-        <v>7425</v>
+        <v>1068.7760000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3804</v>
+        <v>824.48</v>
       </c>
       <c r="O41">
-        <v>14189.6</v>
+        <v>2323.9459999999999</v>
       </c>
       <c r="P41">
-        <v>7834.1</v>
+        <v>1080.0719999999999</v>
       </c>
       <c r="Q41">
-        <v>-160.1</v>
+        <v>-94.204999999999998</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>10744.5</v>
+        <v>5070.201</v>
       </c>
       <c r="U41">
-        <v>2224.8000000000002</v>
+        <v>626.75699999999995</v>
       </c>
       <c r="V41">
-        <v>1181.0999999999999</v>
+        <v>428.24099999999999</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-1312.9</v>
+        <v>-461.25900000000001</v>
       </c>
       <c r="Y41">
-        <v>409.1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>465.6</v>
+        <v>54.158000000000001</v>
       </c>
       <c r="AA41">
-        <v>701.5</v>
+        <v>254.11500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>240.27799999999999</v>
+      </c>
+      <c r="D42">
+        <v>1219.0719999999999</v>
+      </c>
+      <c r="E42">
+        <v>827.78800000000001</v>
+      </c>
+      <c r="F42">
+        <v>1125.4680000000001</v>
+      </c>
+      <c r="G42">
+        <v>2540.42</v>
+      </c>
+      <c r="H42">
+        <v>8092.4930000000004</v>
+      </c>
+      <c r="I42">
+        <v>162.529</v>
+      </c>
+      <c r="J42">
+        <v>1066.3789999999999</v>
+      </c>
+      <c r="K42">
+        <v>125.9</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1050.1220000000001</v>
+      </c>
+      <c r="O42">
+        <v>2643.05</v>
+      </c>
+      <c r="P42">
+        <v>1203.5319999999999</v>
+      </c>
+      <c r="Q42">
+        <v>132.84100000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4850</v>
+      </c>
+      <c r="T42">
+        <v>5449.4430000000002</v>
+      </c>
+      <c r="U42">
+        <v>759.59799999999996</v>
+      </c>
+      <c r="V42">
+        <v>431.05599999999998</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>225.92599999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-437.28699999999998</v>
+      </c>
+      <c r="AA42">
+        <v>240.27799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>294.33100000000002</v>
+      </c>
+      <c r="D43">
+        <v>1192.3430000000001</v>
+      </c>
+      <c r="E43">
+        <v>918.21900000000005</v>
+      </c>
+      <c r="F43">
+        <v>1089.23</v>
+      </c>
+      <c r="G43">
+        <v>2628.3150000000001</v>
+      </c>
+      <c r="H43">
+        <v>8293.5239999999994</v>
+      </c>
+      <c r="I43">
+        <v>159.136</v>
+      </c>
+      <c r="J43">
+        <v>1065.6130000000001</v>
+      </c>
+      <c r="K43">
+        <v>125</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>978.846</v>
+      </c>
+      <c r="O43">
+        <v>2619.2240000000002</v>
+      </c>
+      <c r="P43">
+        <v>1200.3920000000001</v>
+      </c>
+      <c r="Q43">
+        <v>31.077000000000002</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5674.3</v>
+      </c>
+      <c r="U43">
+        <v>790.67499999999995</v>
+      </c>
+      <c r="V43">
+        <v>253.578</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-99.831999999999994</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-120.64700000000001</v>
+      </c>
+      <c r="AA43">
+        <v>294.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>288.03300000000002</v>
+      </c>
+      <c r="D44">
+        <v>1208.6469999999999</v>
+      </c>
+      <c r="E44">
+        <v>851.83100000000002</v>
+      </c>
+      <c r="F44">
+        <v>1108.144</v>
+      </c>
+      <c r="G44">
+        <v>2688.623</v>
+      </c>
+      <c r="H44">
+        <v>8621.9789999999994</v>
+      </c>
+      <c r="I44">
+        <v>170.74600000000001</v>
+      </c>
+      <c r="J44">
+        <v>1062.9860000000001</v>
+      </c>
+      <c r="K44">
+        <v>124.5</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>954.33</v>
+      </c>
+      <c r="O44">
+        <v>2565.7849999999999</v>
+      </c>
+      <c r="P44">
+        <v>1194.9670000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-93.149000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>6056.1940000000004</v>
+      </c>
+      <c r="U44">
+        <v>697.52599999999995</v>
+      </c>
+      <c r="V44">
+        <v>429.666</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>21.907</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-488.08499999999998</v>
+      </c>
+      <c r="AA44">
+        <v>288.03399999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>351.82600000000002</v>
+      </c>
+      <c r="D45">
+        <v>1309.934</v>
+      </c>
+      <c r="E45">
+        <v>812.63400000000001</v>
+      </c>
+      <c r="F45">
+        <v>1186.4069999999999</v>
+      </c>
+      <c r="G45">
+        <v>2837.288</v>
+      </c>
+      <c r="H45">
+        <v>8802.2039999999997</v>
+      </c>
+      <c r="I45">
+        <v>159.197</v>
+      </c>
+      <c r="J45">
+        <v>1060.6389999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>885.346</v>
+      </c>
+      <c r="O45">
+        <v>2568.61</v>
+      </c>
+      <c r="P45">
+        <v>1064.0609999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-122.386</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>6233.5940000000001</v>
+      </c>
+      <c r="U45">
+        <v>575.14</v>
+      </c>
+      <c r="V45">
+        <v>570.52300000000002</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-99.128</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-506.18700000000001</v>
+      </c>
+      <c r="AA45">
+        <v>351.82600000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>300.238</v>
+      </c>
+      <c r="D46">
+        <v>1326.71</v>
+      </c>
+      <c r="E46">
+        <v>813.327</v>
+      </c>
+      <c r="F46">
+        <v>1187.0730000000001</v>
+      </c>
+      <c r="G46">
+        <v>2975.4270000000001</v>
+      </c>
+      <c r="H46">
+        <v>9049.6039999999994</v>
+      </c>
+      <c r="I46">
+        <v>186.44800000000001</v>
+      </c>
+      <c r="J46">
+        <v>1060.808</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>912.88900000000001</v>
+      </c>
+      <c r="O46">
+        <v>2622.6170000000002</v>
+      </c>
+      <c r="P46">
+        <v>1064.0999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-60.597999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5000</v>
+      </c>
+      <c r="T46">
+        <v>6426.9870000000001</v>
+      </c>
+      <c r="U46">
+        <v>514.54200000000003</v>
+      </c>
+      <c r="V46">
+        <v>473.97399999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-142.809</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-278.2</v>
+      </c>
+      <c r="AA46">
+        <v>300.238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>302.661</v>
+      </c>
+      <c r="D47">
+        <v>1292.0139999999999</v>
+      </c>
+      <c r="E47">
+        <v>941.59299999999996</v>
+      </c>
+      <c r="F47">
+        <v>1158.817</v>
+      </c>
+      <c r="G47">
+        <v>2677.95</v>
+      </c>
+      <c r="H47">
+        <v>9113.5490000000009</v>
+      </c>
+      <c r="I47">
+        <v>173.33</v>
+      </c>
+      <c r="J47">
+        <v>626.01199999999994</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1337.319</v>
+      </c>
+      <c r="O47">
+        <v>2805.0010000000002</v>
+      </c>
+      <c r="P47">
+        <v>1079.373</v>
+      </c>
+      <c r="Q47">
+        <v>-216.40299999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>6308.5479999999998</v>
+      </c>
+      <c r="U47">
+        <v>298.13900000000001</v>
+      </c>
+      <c r="V47">
+        <v>194.625</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-416.26400000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>147.34200000000001</v>
+      </c>
+      <c r="AA47">
+        <v>302.661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>386.846</v>
+      </c>
+      <c r="D48">
+        <v>1420.951</v>
+      </c>
+      <c r="E48">
+        <v>950.68200000000002</v>
+      </c>
+      <c r="F48">
+        <v>1281.8389999999999</v>
+      </c>
+      <c r="G48">
+        <v>2868.9189999999999</v>
+      </c>
+      <c r="H48">
+        <v>9162.3799999999992</v>
+      </c>
+      <c r="I48">
+        <v>159.15199999999999</v>
+      </c>
+      <c r="J48">
+        <v>641.56799999999998</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1432.865</v>
+      </c>
+      <c r="O48">
+        <v>2891.6950000000002</v>
+      </c>
+      <c r="P48">
+        <v>1094.6130000000001</v>
+      </c>
+      <c r="Q48">
+        <v>158.672</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>6270.6850000000004</v>
+      </c>
+      <c r="U48">
+        <v>456.81099999999998</v>
+      </c>
+      <c r="V48">
+        <v>635.58100000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-417.44</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>22.655000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>386.846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>398.399</v>
+      </c>
+      <c r="D49">
+        <v>1385.5540000000001</v>
+      </c>
+      <c r="E49">
+        <v>930.48400000000004</v>
+      </c>
+      <c r="F49">
+        <v>1246.1959999999999</v>
+      </c>
+      <c r="G49">
+        <v>3055.3879999999999</v>
+      </c>
+      <c r="H49">
+        <v>9630.6209999999992</v>
+      </c>
+      <c r="I49">
+        <v>157.42400000000001</v>
+      </c>
+      <c r="J49">
+        <v>658.44200000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1521.0930000000001</v>
+      </c>
+      <c r="O49">
+        <v>2968.681</v>
+      </c>
+      <c r="P49">
+        <v>1111.6510000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-5.0880000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>6661.94</v>
+      </c>
+      <c r="U49">
+        <v>451.72300000000001</v>
+      </c>
+      <c r="V49">
+        <v>541.78399999999999</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-28.25</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-448.959</v>
+      </c>
+      <c r="AA49">
+        <v>398.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>292.12700000000001</v>
+      </c>
+      <c r="D50">
+        <v>1417.941</v>
+      </c>
+      <c r="E50">
+        <v>955.24300000000005</v>
+      </c>
+      <c r="F50">
+        <v>1284.1130000000001</v>
+      </c>
+      <c r="G50">
+        <v>3244.337</v>
+      </c>
+      <c r="H50">
+        <v>10130.118</v>
+      </c>
+      <c r="I50">
+        <v>203.999</v>
+      </c>
+      <c r="J50">
+        <v>687.39599999999996</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1657.3889999999999</v>
+      </c>
+      <c r="O50">
+        <v>3166.3229999999999</v>
+      </c>
+      <c r="P50">
+        <v>1140.7750000000001</v>
+      </c>
+      <c r="Q50">
+        <v>118.998</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5950</v>
+      </c>
+      <c r="T50">
+        <v>6963.7950000000001</v>
+      </c>
+      <c r="U50">
+        <v>570.721</v>
+      </c>
+      <c r="V50">
+        <v>507.90699999999998</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-15.523999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-305.91399999999999</v>
+      </c>
+      <c r="AA50">
+        <v>292.12700000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>426.74900000000002</v>
+      </c>
+      <c r="D51">
+        <v>1415.096</v>
+      </c>
+      <c r="E51">
+        <v>1021.04</v>
+      </c>
+      <c r="F51">
+        <v>1281.347</v>
+      </c>
+      <c r="G51">
+        <v>5328.8379999999997</v>
+      </c>
+      <c r="H51">
+        <v>10164.717000000001</v>
+      </c>
+      <c r="I51">
+        <v>165.20699999999999</v>
+      </c>
+      <c r="J51">
+        <v>711.83100000000002</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-450</v>
+      </c>
+      <c r="N51">
+        <v>1281.662</v>
+      </c>
+      <c r="O51">
+        <v>2825.1109999999999</v>
+      </c>
+      <c r="P51">
+        <v>915.14800000000002</v>
+      </c>
+      <c r="Q51">
+        <v>92.581000000000003</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7339.6059999999998</v>
+      </c>
+      <c r="U51">
+        <v>663.30200000000002</v>
+      </c>
+      <c r="V51">
+        <v>178.93899999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-238.42400000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>200.82599999999999</v>
+      </c>
+      <c r="AA51">
+        <v>426.74900000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>490.67</v>
+      </c>
+      <c r="D52">
+        <v>1722.173</v>
+      </c>
+      <c r="E52">
+        <v>1111.453</v>
+      </c>
+      <c r="F52">
+        <v>1491.4449999999999</v>
+      </c>
+      <c r="G52">
+        <v>2523.221</v>
+      </c>
+      <c r="H52">
+        <v>10841.59</v>
+      </c>
+      <c r="I52">
+        <v>163.09399999999999</v>
+      </c>
+      <c r="J52">
+        <v>726.38800000000003</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1304.0740000000001</v>
+      </c>
+      <c r="O52">
+        <v>2939.4450000000002</v>
+      </c>
+      <c r="P52">
+        <v>729.57600000000002</v>
+      </c>
+      <c r="Q52">
+        <v>-270.79500000000002</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7902.1450000000004</v>
+      </c>
+      <c r="U52">
+        <v>392.50700000000001</v>
+      </c>
+      <c r="V52">
+        <v>625.21199999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-170.76300000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>2585.9070000000002</v>
+      </c>
+      <c r="AA52">
+        <v>490.67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>487.61599999999999</v>
+      </c>
+      <c r="D53">
+        <v>1827.28</v>
+      </c>
+      <c r="E53">
+        <v>1154.8610000000001</v>
+      </c>
+      <c r="F53">
+        <v>1592.5840000000001</v>
+      </c>
+      <c r="G53">
+        <v>2643.672</v>
+      </c>
+      <c r="H53">
+        <v>11250.249</v>
+      </c>
+      <c r="I53">
+        <v>166.709</v>
+      </c>
+      <c r="J53">
+        <v>694.89400000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1518.711</v>
+      </c>
+      <c r="O53">
+        <v>3124.5610000000001</v>
+      </c>
+      <c r="P53">
+        <v>698.279</v>
+      </c>
+      <c r="Q53">
+        <v>35.304000000000002</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>8125.6880000000001</v>
+      </c>
+      <c r="U53">
+        <v>427.81099999999998</v>
+      </c>
+      <c r="V53">
+        <v>671.92200000000003</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-318.52199999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-235.124</v>
+      </c>
+      <c r="AA53">
+        <v>487.61599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>457.30599999999998</v>
+      </c>
+      <c r="D54">
+        <v>1965.55</v>
+      </c>
+      <c r="E54">
+        <v>1077.068</v>
+      </c>
+      <c r="F54">
+        <v>1706.9970000000001</v>
+      </c>
+      <c r="G54">
+        <v>3184.9340000000002</v>
+      </c>
+      <c r="H54">
+        <v>11863.334999999999</v>
+      </c>
+      <c r="I54">
+        <v>219.91300000000001</v>
+      </c>
+      <c r="J54">
+        <v>592.43299999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1758.279</v>
+      </c>
+      <c r="O54">
+        <v>3242.4969999999998</v>
+      </c>
+      <c r="P54">
+        <v>595.92700000000002</v>
+      </c>
+      <c r="Q54">
+        <v>174.751</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>6850</v>
+      </c>
+      <c r="T54">
+        <v>8620.8379999999997</v>
+      </c>
+      <c r="U54">
+        <v>602.56200000000001</v>
+      </c>
+      <c r="V54">
+        <v>869.005</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>11.180999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-639.64800000000002</v>
+      </c>
+      <c r="AA54">
+        <v>457.30599999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>479.95600000000002</v>
+      </c>
+      <c r="D55">
+        <v>2129.7510000000002</v>
+      </c>
+      <c r="E55">
+        <v>1296.8030000000001</v>
+      </c>
+      <c r="F55">
+        <v>1850.5060000000001</v>
+      </c>
+      <c r="G55">
+        <v>3525.0239999999999</v>
+      </c>
+      <c r="H55">
+        <v>12230.130999999999</v>
+      </c>
+      <c r="I55">
+        <v>212.809</v>
+      </c>
+      <c r="J55">
+        <v>591.01199999999994</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1594.2470000000001</v>
+      </c>
+      <c r="O55">
+        <v>3089.0680000000002</v>
+      </c>
+      <c r="P55">
+        <v>594.56200000000001</v>
+      </c>
+      <c r="Q55">
+        <v>226.03899999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>9141.0630000000001</v>
+      </c>
+      <c r="U55">
+        <v>828.601</v>
+      </c>
+      <c r="V55">
+        <v>104.626</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>114.875</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>91.301000000000002</v>
+      </c>
+      <c r="AA55">
+        <v>479.95600000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>714.50599999999997</v>
+      </c>
+      <c r="D56">
+        <v>2421.4520000000002</v>
+      </c>
+      <c r="E56">
+        <v>1289.2249999999999</v>
+      </c>
+      <c r="F56">
+        <v>2129.5650000000001</v>
+      </c>
+      <c r="G56">
+        <v>3925.0129999999999</v>
+      </c>
+      <c r="H56">
+        <v>12917.998</v>
+      </c>
+      <c r="I56">
+        <v>224.93100000000001</v>
+      </c>
+      <c r="J56">
+        <v>586.09100000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1916.624</v>
+      </c>
+      <c r="O56">
+        <v>3352.7719999999999</v>
+      </c>
+      <c r="P56">
+        <v>589.47699999999998</v>
+      </c>
+      <c r="Q56">
+        <v>34.595999999999997</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>9565.2260000000006</v>
+      </c>
+      <c r="U56">
+        <v>863.197</v>
+      </c>
+      <c r="V56">
+        <v>990.59299999999996</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-322.36</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-561.38199999999995</v>
+      </c>
+      <c r="AA56">
+        <v>714.50599999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>856.85799999999995</v>
+      </c>
+      <c r="D57">
+        <v>2511.4459999999999</v>
+      </c>
+      <c r="E57">
+        <v>1361.231</v>
+      </c>
+      <c r="F57">
+        <v>2208.8069999999998</v>
+      </c>
+      <c r="G57">
+        <v>4372.1109999999999</v>
+      </c>
+      <c r="H57">
+        <v>13704.142</v>
+      </c>
+      <c r="I57">
+        <v>233.62899999999999</v>
+      </c>
+      <c r="J57">
+        <v>583.97699999999998</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1940.6469999999999</v>
+      </c>
+      <c r="O57">
+        <v>3273.2570000000001</v>
+      </c>
+      <c r="P57">
+        <v>587.197</v>
+      </c>
+      <c r="Q57">
+        <v>323.084</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>10430.885</v>
+      </c>
+      <c r="U57">
+        <v>1186.2809999999999</v>
+      </c>
+      <c r="V57">
+        <v>914.03300000000002</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-35.122999999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-325.63200000000001</v>
+      </c>
+      <c r="AA57">
+        <v>856.85799999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>883.48</v>
+      </c>
+      <c r="D58">
+        <v>2640.6509999999998</v>
+      </c>
+      <c r="E58">
+        <v>1575.8</v>
+      </c>
+      <c r="F58">
+        <v>2343.422</v>
+      </c>
+      <c r="G58">
+        <v>4535</v>
+      </c>
+      <c r="H58">
+        <v>14314.7</v>
+      </c>
+      <c r="I58">
+        <v>229.2</v>
+      </c>
+      <c r="J58">
+        <v>580.29999999999995</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2218.1</v>
+      </c>
+      <c r="O58">
+        <v>3500.7</v>
+      </c>
+      <c r="P58">
+        <v>583.4</v>
+      </c>
+      <c r="Q58">
+        <v>18.581</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>7550</v>
+      </c>
+      <c r="T58">
+        <v>10814</v>
+      </c>
+      <c r="U58">
+        <v>1204.9000000000001</v>
+      </c>
+      <c r="V58">
+        <v>932.84799999999996</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-513.29200000000003</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-68.486999999999995</v>
+      </c>
+      <c r="AA58">
+        <v>883.48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>822.5</v>
+      </c>
+      <c r="D59">
+        <v>2554.9</v>
+      </c>
+      <c r="E59">
+        <v>1701.951</v>
+      </c>
+      <c r="F59">
+        <v>2242.5</v>
+      </c>
+      <c r="G59">
+        <v>5258.8959999999997</v>
+      </c>
+      <c r="H59">
+        <v>15219.454</v>
+      </c>
+      <c r="I59">
+        <v>236.12799999999999</v>
+      </c>
+      <c r="J59">
+        <v>580.67200000000003</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1946.231</v>
+      </c>
+      <c r="O59">
+        <v>3549.9960000000001</v>
+      </c>
+      <c r="P59">
+        <v>583.92600000000004</v>
+      </c>
+      <c r="Q59">
+        <v>273.2</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>11669.458000000001</v>
+      </c>
+      <c r="U59">
+        <v>1478.0509999999999</v>
+      </c>
+      <c r="V59">
+        <v>733</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>80.8</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>50.6</v>
+      </c>
+      <c r="AA59">
+        <v>822.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>927.3</v>
+      </c>
+      <c r="D60">
+        <v>2591.6</v>
+      </c>
+      <c r="E60">
+        <v>1634.5350000000001</v>
+      </c>
+      <c r="F60">
+        <v>2305.5</v>
+      </c>
+      <c r="G60">
+        <v>5618.9849999999997</v>
+      </c>
+      <c r="H60">
+        <v>16759.170999999998</v>
+      </c>
+      <c r="I60">
+        <v>282.702</v>
+      </c>
+      <c r="J60">
+        <v>576.20699999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2555.8319999999999</v>
+      </c>
+      <c r="O60">
+        <v>4186.1729999999998</v>
+      </c>
+      <c r="P60">
+        <v>579.46900000000005</v>
+      </c>
+      <c r="Q60">
+        <v>-196</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>12572.998</v>
+      </c>
+      <c r="U60">
+        <v>1282.078</v>
+      </c>
+      <c r="V60">
+        <v>1047.3</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-3.6</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-1120.0999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>927.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>965.6</v>
+      </c>
+      <c r="D61">
+        <v>2777.9</v>
+      </c>
+      <c r="E61">
+        <v>1647.568</v>
+      </c>
+      <c r="F61">
+        <v>2467.9</v>
+      </c>
+      <c r="G61">
+        <v>9270.8729999999996</v>
+      </c>
+      <c r="H61">
+        <v>20728.367999999999</v>
+      </c>
+      <c r="I61">
+        <v>251.22800000000001</v>
+      </c>
+      <c r="J61">
+        <v>6529.2749999999996</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2633.9679999999998</v>
+      </c>
+      <c r="O61">
+        <v>10161.424999999999</v>
+      </c>
+      <c r="P61">
+        <v>6534.4459999999999</v>
+      </c>
+      <c r="Q61">
+        <v>2806.9</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>10566.942999999999</v>
+      </c>
+      <c r="U61">
+        <v>4089.0030000000002</v>
+      </c>
+      <c r="V61">
+        <v>895.4</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>2907.6</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-437.2</v>
+      </c>
+      <c r="AA61">
+        <v>965.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>831.6</v>
+      </c>
+      <c r="D62">
+        <v>2839.3</v>
+      </c>
+      <c r="E62">
+        <v>1541.5</v>
+      </c>
+      <c r="F62">
+        <v>2507.5</v>
+      </c>
+      <c r="G62">
+        <v>6700.3</v>
+      </c>
+      <c r="H62">
+        <v>19504.8</v>
+      </c>
+      <c r="I62">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="J62">
+        <v>6521.5</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2577.6999999999998</v>
+      </c>
+      <c r="O62">
+        <v>10129.9</v>
+      </c>
+      <c r="P62">
+        <v>6526.3</v>
+      </c>
+      <c r="Q62">
+        <v>-2781</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>7350</v>
+      </c>
+      <c r="T62">
+        <v>9374.9</v>
+      </c>
+      <c r="U62">
+        <v>1308</v>
+      </c>
+      <c r="V62">
+        <v>1040.4000000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-1998.4</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-1295.2</v>
+      </c>
+      <c r="AA62">
+        <v>831.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>970.9</v>
+      </c>
+      <c r="D63">
+        <v>2726.8</v>
+      </c>
+      <c r="E63">
+        <v>1710.2</v>
+      </c>
+      <c r="F63">
+        <v>2413.8000000000002</v>
+      </c>
+      <c r="G63">
+        <v>7201.3</v>
+      </c>
+      <c r="H63">
+        <v>20674.7</v>
+      </c>
+      <c r="I63">
+        <v>271.3</v>
+      </c>
+      <c r="J63">
+        <v>6535.6</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2776.6</v>
+      </c>
+      <c r="O63">
+        <v>10346.6</v>
+      </c>
+      <c r="P63">
+        <v>6540.5</v>
+      </c>
+      <c r="Q63">
+        <v>-177.3</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>10328.1</v>
+      </c>
+      <c r="U63">
+        <v>1130.7</v>
+      </c>
+      <c r="V63">
+        <v>1015.8</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-5</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-733.3</v>
+      </c>
+      <c r="AA63">
+        <v>970.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1049.8</v>
+      </c>
+      <c r="D64">
+        <v>2894.2</v>
+      </c>
+      <c r="E64">
+        <v>1627.1</v>
+      </c>
+      <c r="F64">
+        <v>2523.9</v>
+      </c>
+      <c r="G64">
+        <v>7447.7</v>
+      </c>
+      <c r="H64">
+        <v>21514.799999999999</v>
+      </c>
+      <c r="I64">
+        <v>225.9</v>
+      </c>
+      <c r="J64">
+        <v>6538.3</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2516.1999999999998</v>
+      </c>
+      <c r="O64">
+        <v>10111.1</v>
+      </c>
+      <c r="P64">
+        <v>6543.1</v>
+      </c>
+      <c r="Q64">
+        <v>231.3</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>11403.7</v>
+      </c>
+      <c r="U64">
+        <v>1362</v>
+      </c>
+      <c r="V64">
+        <v>998.2</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-15.8</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-276.39999999999998</v>
+      </c>
+      <c r="AA64">
+        <v>1049.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1032.9000000000001</v>
+      </c>
+      <c r="D65">
+        <v>2955.8</v>
+      </c>
+      <c r="E65">
+        <v>1773</v>
+      </c>
+      <c r="F65">
+        <v>2538.9</v>
+      </c>
+      <c r="G65">
+        <v>8091.8</v>
+      </c>
+      <c r="H65">
+        <v>22104.9</v>
+      </c>
+      <c r="I65">
+        <v>274</v>
+      </c>
+      <c r="J65">
+        <v>6529.6</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2499.6999999999998</v>
+      </c>
+      <c r="O65">
+        <v>9990.1</v>
+      </c>
+      <c r="P65">
+        <v>6534.5</v>
+      </c>
+      <c r="Q65">
+        <v>722.8</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>12114.8</v>
+      </c>
+      <c r="U65">
+        <v>2084.8000000000002</v>
+      </c>
+      <c r="V65">
+        <v>991.3</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-305.3</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>563.79999999999995</v>
+      </c>
+      <c r="AA65">
+        <v>1032.9000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>649.20000000000005</v>
+      </c>
+      <c r="D66">
+        <v>2872</v>
+      </c>
+      <c r="E66">
+        <v>1742.2</v>
+      </c>
+      <c r="F66">
+        <v>2545.9</v>
+      </c>
+      <c r="G66">
+        <v>8732.2000000000007</v>
+      </c>
+      <c r="H66">
+        <v>22876.799999999999</v>
+      </c>
+      <c r="I66">
+        <v>279.8</v>
+      </c>
+      <c r="J66">
+        <v>6512.7</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3419.9</v>
+      </c>
+      <c r="O66">
+        <v>10748.2</v>
+      </c>
+      <c r="P66">
+        <v>6517.4</v>
+      </c>
+      <c r="Q66">
+        <v>241.7</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>7400</v>
+      </c>
+      <c r="T66">
+        <v>12128.6</v>
+      </c>
+      <c r="U66">
+        <v>2326.5</v>
+      </c>
+      <c r="V66">
+        <v>1581.9</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-726.5</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-88.4</v>
+      </c>
+      <c r="AA66">
+        <v>649.20000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>747.6</v>
+      </c>
+      <c r="D67">
+        <v>2810.7</v>
+      </c>
+      <c r="E67">
+        <v>1826</v>
+      </c>
+      <c r="F67">
+        <v>2426.1</v>
+      </c>
+      <c r="G67">
+        <v>6859.7</v>
+      </c>
+      <c r="H67">
+        <v>21195.9</v>
+      </c>
+      <c r="I67">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="J67">
+        <v>5952.7</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2992.5</v>
+      </c>
+      <c r="O67">
+        <v>9728.5</v>
+      </c>
+      <c r="P67">
+        <v>6514.2</v>
+      </c>
+      <c r="Q67">
+        <v>-1402.5</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>11467.4</v>
+      </c>
+      <c r="U67">
+        <v>924</v>
+      </c>
+      <c r="V67">
+        <v>235.2</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-901.4</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>627.6</v>
+      </c>
+      <c r="AA67">
+        <v>747.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>862.8</v>
+      </c>
+      <c r="D68">
+        <v>3078.4</v>
+      </c>
+      <c r="E68">
+        <v>2133.1</v>
+      </c>
+      <c r="F68">
+        <v>2712.2</v>
+      </c>
+      <c r="G68">
+        <v>7108.7</v>
+      </c>
+      <c r="H68">
+        <v>21759</v>
+      </c>
+      <c r="I68">
+        <v>330.3</v>
+      </c>
+      <c r="J68">
+        <v>5954</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3379.7</v>
+      </c>
+      <c r="O68">
+        <v>10185.4</v>
+      </c>
+      <c r="P68">
+        <v>6513.9</v>
+      </c>
+      <c r="Q68">
+        <v>245.6</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>11573.6</v>
+      </c>
+      <c r="U68">
+        <v>1169.5</v>
+      </c>
+      <c r="V68">
+        <v>1169.2</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-751</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>420.9</v>
+      </c>
+      <c r="AA68">
+        <v>862.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1226.0999999999999</v>
+      </c>
+      <c r="D69">
+        <v>3077.8</v>
+      </c>
+      <c r="E69">
+        <v>2085.5</v>
+      </c>
+      <c r="F69">
+        <v>2707.8</v>
+      </c>
+      <c r="G69">
+        <v>7568</v>
+      </c>
+      <c r="H69">
+        <v>23073.200000000001</v>
+      </c>
+      <c r="I69">
+        <v>298.7</v>
+      </c>
+      <c r="J69">
+        <v>5938.3</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3448.4</v>
+      </c>
+      <c r="O69">
+        <v>10224.299999999999</v>
+      </c>
+      <c r="P69">
+        <v>6511.5</v>
+      </c>
+      <c r="Q69">
+        <v>378.5</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>12848.9</v>
+      </c>
+      <c r="U69">
+        <v>1548.1</v>
+      </c>
+      <c r="V69">
+        <v>1628.3</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-19.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-669.8</v>
+      </c>
+      <c r="AA69">
+        <v>1226.0999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-297.39999999999998</v>
+      </c>
+      <c r="D70">
+        <v>3307</v>
+      </c>
+      <c r="E70">
+        <v>2319.6</v>
+      </c>
+      <c r="F70">
+        <v>2797.8</v>
+      </c>
+      <c r="G70">
+        <v>7873.3</v>
+      </c>
+      <c r="H70">
+        <v>23652.6</v>
+      </c>
+      <c r="I70">
+        <v>395.5</v>
+      </c>
+      <c r="J70">
+        <v>5935</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3368.2</v>
+      </c>
+      <c r="O70">
+        <v>11054.5</v>
+      </c>
+      <c r="P70">
+        <v>5938.2</v>
+      </c>
+      <c r="Q70">
+        <v>25.7</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7300</v>
+      </c>
+      <c r="T70">
+        <v>12598.1</v>
+      </c>
+      <c r="U70">
+        <v>1573.8</v>
+      </c>
+      <c r="V70">
+        <v>1518.3</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-708.1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-168</v>
+      </c>
+      <c r="AA70">
+        <v>-297.39999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1172.9000000000001</v>
+      </c>
+      <c r="D71">
+        <v>3131.1</v>
+      </c>
+      <c r="E71">
+        <v>2492.6999999999998</v>
+      </c>
+      <c r="F71">
+        <v>2685.1</v>
+      </c>
+      <c r="G71">
+        <v>10195.4</v>
+      </c>
+      <c r="H71">
+        <v>26090.1</v>
+      </c>
+      <c r="I71">
+        <v>345.8</v>
+      </c>
+      <c r="J71">
+        <v>5929.4</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3152.1</v>
+      </c>
+      <c r="O71">
+        <v>12052.6</v>
+      </c>
+      <c r="P71">
+        <v>5932.7</v>
+      </c>
+      <c r="Q71">
+        <v>2534.1999999999998</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>14037.5</v>
+      </c>
+      <c r="U71">
+        <v>4108</v>
+      </c>
+      <c r="V71">
+        <v>1457.1</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-268.60000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>2149.6999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>1172.9000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>866.6</v>
+      </c>
+      <c r="D72">
+        <v>3356.5</v>
+      </c>
+      <c r="E72">
+        <v>2432.9</v>
+      </c>
+      <c r="F72">
+        <v>2935.5</v>
+      </c>
+      <c r="G72">
+        <v>7432.1</v>
+      </c>
+      <c r="H72">
+        <v>23952.9</v>
+      </c>
+      <c r="I72">
+        <v>295.7</v>
+      </c>
+      <c r="J72">
+        <v>5928.4</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3152.4</v>
+      </c>
+      <c r="O72">
+        <v>11699.2</v>
+      </c>
+      <c r="P72">
+        <v>5928.4</v>
+      </c>
+      <c r="Q72">
+        <v>-2857.8</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>12253.7</v>
+      </c>
+      <c r="U72">
+        <v>1250.2</v>
+      </c>
+      <c r="V72">
+        <v>1099.3</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-2791.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-584.20000000000005</v>
+      </c>
+      <c r="AA72">
+        <v>866.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1444.4</v>
+      </c>
+      <c r="D73">
+        <v>3439</v>
+      </c>
+      <c r="E73">
+        <v>2525.6999999999998</v>
+      </c>
+      <c r="F73">
+        <v>2978.2</v>
+      </c>
+      <c r="G73">
+        <v>8719</v>
+      </c>
+      <c r="H73">
+        <v>25492.2</v>
+      </c>
+      <c r="I73">
+        <v>342.3</v>
+      </c>
+      <c r="J73">
+        <v>5931.1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3174.9</v>
+      </c>
+      <c r="O73">
+        <v>11732.4</v>
+      </c>
+      <c r="P73">
+        <v>5931.1</v>
+      </c>
+      <c r="Q73">
+        <v>1136.5</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>13759.8</v>
+      </c>
+      <c r="U73">
+        <v>2386.6999999999998</v>
+      </c>
+      <c r="V73">
+        <v>1735.9</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>25.1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-127.5</v>
+      </c>
+      <c r="AA73">
+        <v>1444.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>946.8</v>
+      </c>
+      <c r="D74">
+        <v>3526.3</v>
+      </c>
+      <c r="E74">
+        <v>2485.4</v>
+      </c>
+      <c r="F74">
+        <v>3037.8</v>
+      </c>
+      <c r="G74">
+        <v>7640.9</v>
+      </c>
+      <c r="H74">
+        <v>25288.9</v>
+      </c>
+      <c r="I74">
+        <v>370.5</v>
+      </c>
+      <c r="J74">
+        <v>5936.5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3295.2</v>
+      </c>
+      <c r="O74">
+        <v>12257.3</v>
+      </c>
+      <c r="P74">
+        <v>5936.5</v>
+      </c>
+      <c r="Q74">
+        <v>-1162.0999999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7800</v>
+      </c>
+      <c r="T74">
+        <v>13031.6</v>
+      </c>
+      <c r="U74">
+        <v>1224.5999999999999</v>
+      </c>
+      <c r="V74">
+        <v>1895.4</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-1437</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-1098.5999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>946.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1408.8</v>
+      </c>
+      <c r="D75">
+        <v>3489.8</v>
+      </c>
+      <c r="E75">
+        <v>2616</v>
+      </c>
+      <c r="F75">
+        <v>2887.8</v>
+      </c>
+      <c r="G75">
+        <v>8942.6</v>
+      </c>
+      <c r="H75">
+        <v>26445.5</v>
+      </c>
+      <c r="I75">
+        <v>378</v>
+      </c>
+      <c r="J75">
+        <v>5943.2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3148.7</v>
+      </c>
+      <c r="O75">
+        <v>12623.5</v>
+      </c>
+      <c r="P75">
+        <v>6451.8</v>
+      </c>
+      <c r="Q75">
+        <v>1018.6</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>13822</v>
+      </c>
+      <c r="U75">
+        <v>2243.1999999999998</v>
+      </c>
+      <c r="V75">
+        <v>1459.5</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-679.3</v>
+      </c>
+      <c r="Y75">
+        <v>436.1</v>
+      </c>
+      <c r="Z75">
+        <v>664.2</v>
+      </c>
+      <c r="AA75">
+        <v>1408.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1494.1</v>
+      </c>
+      <c r="D76">
+        <v>3616.7</v>
+      </c>
+      <c r="E76">
+        <v>2517.1</v>
+      </c>
+      <c r="F76">
+        <v>3140.4</v>
+      </c>
+      <c r="G76">
+        <v>7909.8</v>
+      </c>
+      <c r="H76">
+        <v>26287.599999999999</v>
+      </c>
+      <c r="I76">
+        <v>377.1</v>
+      </c>
+      <c r="J76">
+        <v>5948.5</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3210.9</v>
+      </c>
+      <c r="O76">
+        <v>13338.8</v>
+      </c>
+      <c r="P76">
+        <v>6443.8</v>
+      </c>
+      <c r="Q76">
+        <v>-519.79999999999995</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>12948.8</v>
+      </c>
+      <c r="U76">
+        <v>1723.4</v>
+      </c>
+      <c r="V76">
+        <v>1964</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-2375.6999999999998</v>
+      </c>
+      <c r="Y76">
+        <v>423</v>
+      </c>
+      <c r="Z76">
+        <v>826.2</v>
+      </c>
+      <c r="AA76">
+        <v>1494.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1545.9</v>
+      </c>
+      <c r="D77">
+        <v>3600.1</v>
+      </c>
+      <c r="E77">
+        <v>2515.8000000000002</v>
+      </c>
+      <c r="F77">
+        <v>3170.1</v>
+      </c>
+      <c r="G77">
+        <v>8448.2000000000007</v>
+      </c>
+      <c r="H77">
+        <v>27484</v>
+      </c>
+      <c r="I77">
+        <v>382.2</v>
+      </c>
+      <c r="J77">
+        <v>4458.2</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4432.2</v>
+      </c>
+      <c r="O77">
+        <v>13492.2</v>
+      </c>
+      <c r="P77">
+        <v>6434.6</v>
+      </c>
+      <c r="Q77">
+        <v>620.5</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>13991.8</v>
+      </c>
+      <c r="U77">
+        <v>2343.9</v>
+      </c>
+      <c r="V77">
+        <v>1694.9</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-689</v>
+      </c>
+      <c r="Y77">
+        <v>410.5</v>
+      </c>
+      <c r="Z77">
+        <v>-1198.9000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>1545.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1439.7</v>
+      </c>
+      <c r="D78">
+        <v>3671.3</v>
+      </c>
+      <c r="E78">
+        <v>2470.6999999999998</v>
+      </c>
+      <c r="F78">
+        <v>3224.2</v>
+      </c>
+      <c r="G78">
+        <v>8381.7999999999993</v>
+      </c>
+      <c r="H78">
+        <v>27234.3</v>
+      </c>
+      <c r="I78">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="J78">
+        <v>4459</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4863.8</v>
+      </c>
+      <c r="O78">
+        <v>13895.2</v>
+      </c>
+      <c r="P78">
+        <v>6441.1</v>
+      </c>
+      <c r="Q78">
+        <v>569.79999999999995</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>7400</v>
+      </c>
+      <c r="T78">
+        <v>13339.1</v>
+      </c>
+      <c r="U78">
+        <v>2913.7</v>
+      </c>
+      <c r="V78">
+        <v>1960.2</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-2116.4</v>
+      </c>
+      <c r="Y78">
+        <v>412.7</v>
+      </c>
+      <c r="Z78">
+        <v>942.2</v>
+      </c>
+      <c r="AA78">
+        <v>1439.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1399.1</v>
+      </c>
+      <c r="D79">
+        <v>3534.3</v>
+      </c>
+      <c r="E79">
+        <v>2604.1999999999998</v>
+      </c>
+      <c r="F79">
+        <v>3080</v>
+      </c>
+      <c r="G79">
+        <v>8007.2</v>
+      </c>
+      <c r="H79">
+        <v>26119.200000000001</v>
+      </c>
+      <c r="I79">
+        <v>389</v>
+      </c>
+      <c r="J79">
+        <v>4459.8999999999996</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>4638.6000000000004</v>
+      </c>
+      <c r="O79">
+        <v>13582.3</v>
+      </c>
+      <c r="P79">
+        <v>6365.4</v>
+      </c>
+      <c r="Q79">
+        <v>-322.39999999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>12536.9</v>
+      </c>
+      <c r="U79">
+        <v>2591.3000000000002</v>
+      </c>
+      <c r="V79">
+        <v>1467.3</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-2245.3000000000002</v>
+      </c>
+      <c r="Y79">
+        <v>403.7</v>
+      </c>
+      <c r="Z79">
+        <v>705.1</v>
+      </c>
+      <c r="AA79">
+        <v>1399.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1542.1</v>
+      </c>
+      <c r="D80">
+        <v>3681.6</v>
+      </c>
+      <c r="E80">
+        <v>2574.6999999999998</v>
+      </c>
+      <c r="F80">
+        <v>3270.5</v>
+      </c>
+      <c r="G80">
+        <v>8493.7999999999993</v>
+      </c>
+      <c r="H80">
+        <v>25511.8</v>
+      </c>
+      <c r="I80">
+        <v>383.9</v>
+      </c>
+      <c r="J80">
+        <v>7423.8</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3447.1</v>
+      </c>
+      <c r="O80">
+        <v>14222.6</v>
+      </c>
+      <c r="P80">
+        <v>7838.6</v>
+      </c>
+      <c r="Q80">
+        <v>-206.4</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>11289.2</v>
+      </c>
+      <c r="U80">
+        <v>2384.9</v>
+      </c>
+      <c r="V80">
+        <v>1948.5</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-1313.4</v>
+      </c>
+      <c r="Y80">
+        <v>414.8</v>
+      </c>
+      <c r="Z80">
+        <v>-578.6</v>
+      </c>
+      <c r="AA80">
+        <v>1542.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>701.5</v>
+      </c>
+      <c r="D81">
+        <v>3376.1</v>
+      </c>
+      <c r="E81">
+        <v>2552.1</v>
+      </c>
+      <c r="F81">
+        <v>2927</v>
+      </c>
+      <c r="G81">
+        <v>7843.1</v>
+      </c>
+      <c r="H81">
+        <v>24934.1</v>
+      </c>
+      <c r="I81">
+        <v>398.4</v>
+      </c>
+      <c r="J81">
+        <v>7425</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3804</v>
+      </c>
+      <c r="O81">
+        <v>14189.6</v>
+      </c>
+      <c r="P81">
+        <v>7834.1</v>
+      </c>
+      <c r="Q81">
+        <v>-160.1</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10744.5</v>
+      </c>
+      <c r="U81">
+        <v>2224.8000000000002</v>
+      </c>
+      <c r="V81">
+        <v>1181.0999999999999</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-1312.9</v>
+      </c>
+      <c r="Y81">
+        <v>409.1</v>
+      </c>
+      <c r="Z81">
+        <v>465.6</v>
+      </c>
+      <c r="AA81">
+        <v>701.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>357.9</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2852.6</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2327.3000000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2362</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>6887.1</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>24618.9</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>454.9</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7426.2</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3742.2</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>13932.8</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>7911.4</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-893.6</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>9100</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>10686.1</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1331.2</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-367.1</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-401.1</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>402</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-56.5</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>357.9</v>
       </c>
     </row>
